--- a/sprint 5/07.10.2021/03_Product_Backlog.xlsx
+++ b/sprint 5/07.10.2021/03_Product_Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Documents\GitHub\Huella_Carbono\sprint 5\04.10.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Documents\GitHub\Huella_Carbono\sprint 5\07.10.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18DC917-BB12-45CF-AE2A-C4F9BA539E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5888B622-13E2-4C39-B231-536708295314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D13067E4-98AA-4D02-BD79-AE235663521A}"/>
   </bookViews>
@@ -34,14 +34,14 @@
     <definedName name="PBCurrentBottom">OFFSET('[1]PB Burndown'!$N$27,1,0,'[1]PB Burndown'!$G$9,1)</definedName>
     <definedName name="PBTrend">OFFSET('[1]PB Burndown'!$M$27,1,0,'[1]PB Burndown'!$G$9,1)</definedName>
     <definedName name="PlannedSpeed">OFFSET('[1]PB Burndown'!$C$27,1,0,'[1]PB Burndown'!$G$3,1)</definedName>
-    <definedName name="ProductBacklog">'Product Backlog'!$A$4:$H$137</definedName>
+    <definedName name="ProductBacklog">'Product Backlog'!$A$4:$H$136</definedName>
     <definedName name="RealizedSpeed">OFFSET('[1]PB Burndown'!$D$27,1,0,'[1]PB Burndown'!$G$3,1)</definedName>
-    <definedName name="Sprint">'Product Backlog'!$E$5:$E$137</definedName>
+    <definedName name="Sprint">'Product Backlog'!$E$5:$E$136</definedName>
     <definedName name="SprintCount">'[1]PB Burndown'!$G$3</definedName>
     <definedName name="SprintsInTrend">'[1]PB Burndown'!$G$6</definedName>
     <definedName name="SprintTasks">#REF!</definedName>
-    <definedName name="Status">'Product Backlog'!$C$5:$C$137</definedName>
-    <definedName name="StoryName">'Product Backlog'!$B$5:$B$137</definedName>
+    <definedName name="Status">'Product Backlog'!$C$5:$C$136</definedName>
+    <definedName name="StoryName">'Product Backlog'!$B$5:$B$136</definedName>
     <definedName name="TaskRows">#REF!</definedName>
     <definedName name="TaskStatus">#REF!</definedName>
     <definedName name="TaskStoryID">#REF!</definedName>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="88">
   <si>
     <t>Increment Plan</t>
   </si>
@@ -766,7 +766,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="225">
+  <dxfs count="213">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -1052,95 +1052,6 @@
           <bgColor indexed="42"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="54"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="54"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="54"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3924,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" ref="D16:D43" si="1">IF(AND(B16&lt;&gt;"",C16&lt;&gt;""),B16+C16-1,"")</f>
+        <f t="shared" ref="D16:D20" si="1">IF(AND(B16&lt;&gt;"",C16&lt;&gt;""),B16+C16-1,"")</f>
         <v>44445</v>
       </c>
       <c r="E16" s="7">
@@ -4895,686 +4806,686 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:I6 E5:F6 E44:F45 E9:F10 E7:E8 H9:I10 A4:D10">
-    <cfRule type="expression" dxfId="224" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="242" stopIfTrue="1">
       <formula>$G4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="243" stopIfTrue="1">
       <formula>$G4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G16:G22 G9:G10 G43">
-    <cfRule type="expression" dxfId="222" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="244" stopIfTrue="1">
       <formula>$G4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="245" stopIfTrue="1">
       <formula>$G4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="246" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="246" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 F6 H16:I16 A43 H43 A16:F16 A17:A22 I17:I21 C17:F22 C43 E43:F43">
-    <cfRule type="expression" dxfId="219" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="247" stopIfTrue="1">
       <formula>OR($G4="Planned",$G4="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="248" stopIfTrue="1">
       <formula>$G4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="217" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="240" stopIfTrue="1">
       <formula>$G16="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="241" stopIfTrue="1">
       <formula>$G16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="215" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="238" stopIfTrue="1">
       <formula>$G16="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="239" stopIfTrue="1">
       <formula>$G16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D22">
-    <cfRule type="expression" dxfId="213" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="236" stopIfTrue="1">
       <formula>$G16="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="237" stopIfTrue="1">
       <formula>$G16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:I8 F7:F8">
-    <cfRule type="expression" dxfId="211" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="229" stopIfTrue="1">
       <formula>$G7="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="230" stopIfTrue="1">
       <formula>$G7="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="expression" dxfId="209" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="231" stopIfTrue="1">
       <formula>$G7="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="232" stopIfTrue="1">
       <formula>$G7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="233" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="233" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="expression" dxfId="206" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="234" stopIfTrue="1">
       <formula>OR($G7="Planned",$G7="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="235" stopIfTrue="1">
       <formula>$G7="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="204" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="224" stopIfTrue="1">
       <formula>$G23="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="225" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="226" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="226" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23 C23 E23:F23">
-    <cfRule type="expression" dxfId="201" priority="227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="227" stopIfTrue="1">
       <formula>OR($G23="Planned",$G23="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="228" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="199" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="213" stopIfTrue="1">
       <formula>$G24="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="214" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="215" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="215" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:F24">
-    <cfRule type="expression" dxfId="196" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="216" stopIfTrue="1">
       <formula>OR($G24="Planned",$G24="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="217" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="194" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="207" stopIfTrue="1">
       <formula>$G24="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="208" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="192" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="138" stopIfTrue="1">
       <formula>$G23="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="139" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="190" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="136" stopIfTrue="1">
       <formula>$G23="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="137" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B22">
-    <cfRule type="expression" dxfId="188" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="182" stopIfTrue="1">
       <formula>OR($G17="Planned",$G17="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="183" stopIfTrue="1">
       <formula>$G17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B22">
-    <cfRule type="expression" dxfId="186" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="180" stopIfTrue="1">
       <formula>$G17="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="181" stopIfTrue="1">
       <formula>$G17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B22">
-    <cfRule type="expression" dxfId="184" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="178" stopIfTrue="1">
       <formula>$G17="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="179" stopIfTrue="1">
       <formula>$G17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H23">
-    <cfRule type="expression" dxfId="182" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="176" stopIfTrue="1">
       <formula>OR($G17="Planned",$G17="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="177" stopIfTrue="1">
       <formula>$G17="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H27">
-    <cfRule type="expression" dxfId="180" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="124" stopIfTrue="1">
       <formula>OR($G24="Planned",$G24="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="125" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B27">
-    <cfRule type="expression" dxfId="178" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="132" stopIfTrue="1">
       <formula>$G24="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="133" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="176" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="122" stopIfTrue="1">
       <formula>OR($G22="Planned",$G22="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="123" stopIfTrue="1">
       <formula>$G22="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G32">
-    <cfRule type="expression" dxfId="174" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="156" stopIfTrue="1">
       <formula>$G25="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="157" stopIfTrue="1">
       <formula>$G25="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="158" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="158" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A32 C25:F32">
-    <cfRule type="expression" dxfId="171" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="159" stopIfTrue="1">
       <formula>OR($G25="Planned",$G25="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="160" stopIfTrue="1">
       <formula>$G25="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D32">
-    <cfRule type="expression" dxfId="169" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="154" stopIfTrue="1">
       <formula>$G25="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="155" stopIfTrue="1">
       <formula>$G25="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="167" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="140" stopIfTrue="1">
       <formula>OR($G23="Planned",$G23="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="141" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H32">
-    <cfRule type="expression" dxfId="165" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="146" stopIfTrue="1">
       <formula>OR($G28="Planned",$G28="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="147" stopIfTrue="1">
       <formula>$G28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="163" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="144" stopIfTrue="1">
       <formula>OR($G23="Planned",$G23="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="145" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="161" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="142" stopIfTrue="1">
       <formula>$G23="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="143" stopIfTrue="1">
       <formula>$G23="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B27">
-    <cfRule type="expression" dxfId="159" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="130" stopIfTrue="1">
       <formula>$G24="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="131" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B27">
-    <cfRule type="expression" dxfId="157" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="134" stopIfTrue="1">
       <formula>OR($G24="Planned",$G24="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="135" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A27">
-    <cfRule type="expression" dxfId="155" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="128" stopIfTrue="1">
       <formula>OR($G24="Planned",$G24="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="129" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I32 I43">
-    <cfRule type="expression" dxfId="153" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="116" stopIfTrue="1">
       <formula>$C23="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="117" stopIfTrue="1">
       <formula>$C23="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="118" stopIfTrue="1">
       <formula>$C23="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="150" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="114" stopIfTrue="1">
       <formula>OR($G28="Planned",$G28="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="115" stopIfTrue="1">
       <formula>$G28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="148" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="112" stopIfTrue="1">
       <formula>$G28="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="113" stopIfTrue="1">
       <formula>$G28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="146" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="110" stopIfTrue="1">
       <formula>$G28="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="111" stopIfTrue="1">
       <formula>$G28="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B32">
-    <cfRule type="expression" dxfId="144" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="108" stopIfTrue="1">
       <formula>OR($G29="Planned",$G29="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="109" stopIfTrue="1">
       <formula>$G29="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B32">
-    <cfRule type="expression" dxfId="142" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="106" stopIfTrue="1">
       <formula>$G29="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="107" stopIfTrue="1">
       <formula>$G29="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B32">
-    <cfRule type="expression" dxfId="140" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="104" stopIfTrue="1">
       <formula>$G29="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="105" stopIfTrue="1">
       <formula>$G29="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:G42">
-    <cfRule type="expression" dxfId="138" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="99" stopIfTrue="1">
       <formula>$G37="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="100" stopIfTrue="1">
       <formula>$G37="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="101" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A42 C37:F42">
-    <cfRule type="expression" dxfId="135" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="102" stopIfTrue="1">
       <formula>OR($G37="Planned",$G37="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="103" stopIfTrue="1">
       <formula>$G37="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D42">
-    <cfRule type="expression" dxfId="133" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="97" stopIfTrue="1">
       <formula>$G37="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="98" stopIfTrue="1">
       <formula>$G37="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:H42">
-    <cfRule type="expression" dxfId="131" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="95" stopIfTrue="1">
       <formula>OR($G37="Planned",$G37="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="96" stopIfTrue="1">
       <formula>$G37="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="expression" dxfId="129" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="90" stopIfTrue="1">
       <formula>OR($G37="Planned",$G37="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="91" stopIfTrue="1">
       <formula>$G37="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="expression" dxfId="127" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="88" stopIfTrue="1">
       <formula>$G37="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="89" stopIfTrue="1">
       <formula>$G37="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B42">
-    <cfRule type="expression" dxfId="125" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="86" stopIfTrue="1">
       <formula>$G37="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="87" stopIfTrue="1">
       <formula>$G37="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="123" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="81" stopIfTrue="1">
       <formula>$G33="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="82" stopIfTrue="1">
       <formula>$G33="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="83" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33 C33:F33">
-    <cfRule type="expression" dxfId="120" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="84" stopIfTrue="1">
       <formula>OR($G33="Planned",$G33="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="85" stopIfTrue="1">
       <formula>$G33="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="118" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="79" stopIfTrue="1">
       <formula>$G33="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="80" stopIfTrue="1">
       <formula>$G33="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="116" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="77" stopIfTrue="1">
       <formula>OR($G33="Planned",$G33="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="78" stopIfTrue="1">
       <formula>$G33="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="114" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="72" stopIfTrue="1">
       <formula>OR($G33="Planned",$G33="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="73" stopIfTrue="1">
       <formula>$G33="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="112" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="70" stopIfTrue="1">
       <formula>$G33="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="71" stopIfTrue="1">
       <formula>$G33="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="110" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="68" stopIfTrue="1">
       <formula>$G33="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="69" stopIfTrue="1">
       <formula>$G33="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="108" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="63" stopIfTrue="1">
       <formula>$G34="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="64" stopIfTrue="1">
       <formula>$G34="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="65" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34 C34:F34">
-    <cfRule type="expression" dxfId="105" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="66" stopIfTrue="1">
       <formula>OR($G34="Planned",$G34="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="67" stopIfTrue="1">
       <formula>$G34="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="103" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="61" stopIfTrue="1">
       <formula>$G34="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="62" stopIfTrue="1">
       <formula>$G34="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="101" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="59" stopIfTrue="1">
       <formula>OR($G34="Planned",$G34="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="60" stopIfTrue="1">
       <formula>$G34="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="99" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="54" stopIfTrue="1">
       <formula>OR($G34="Planned",$G34="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="55" stopIfTrue="1">
       <formula>$G34="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="97" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="52" stopIfTrue="1">
       <formula>$G34="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="53" stopIfTrue="1">
       <formula>$G34="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="95" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="50" stopIfTrue="1">
       <formula>$G34="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="51" stopIfTrue="1">
       <formula>$G34="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="93" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="45" stopIfTrue="1">
       <formula>$G35="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="46" stopIfTrue="1">
       <formula>$G35="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="47" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35 C35:F35">
-    <cfRule type="expression" dxfId="90" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="48" stopIfTrue="1">
       <formula>OR($G35="Planned",$G35="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="49" stopIfTrue="1">
       <formula>$G35="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="88" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="43" stopIfTrue="1">
       <formula>$G35="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="44" stopIfTrue="1">
       <formula>$G35="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="86" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="41" stopIfTrue="1">
       <formula>OR($G35="Planned",$G35="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="42" stopIfTrue="1">
       <formula>$G35="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="84" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="36" stopIfTrue="1">
       <formula>OR($G35="Planned",$G35="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="37" stopIfTrue="1">
       <formula>$G35="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="82" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="34" stopIfTrue="1">
       <formula>$G35="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="35" stopIfTrue="1">
       <formula>$G35="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="80" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="32" stopIfTrue="1">
       <formula>$G35="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="33" stopIfTrue="1">
       <formula>$G35="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="expression" dxfId="78" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="27" stopIfTrue="1">
       <formula>$G36="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="28" stopIfTrue="1">
       <formula>$G36="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="29" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36 C36:F36">
-    <cfRule type="expression" dxfId="75" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="30" stopIfTrue="1">
       <formula>OR($G36="Planned",$G36="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="31" stopIfTrue="1">
       <formula>$G36="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="73" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="25" stopIfTrue="1">
       <formula>$G36="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="26" stopIfTrue="1">
       <formula>$G36="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="71" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="23" stopIfTrue="1">
       <formula>OR($G36="Planned",$G36="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="24" stopIfTrue="1">
       <formula>$G36="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="69" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="18" stopIfTrue="1">
       <formula>OR($G36="Planned",$G36="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="19" stopIfTrue="1">
       <formula>$G36="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="67" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="16" stopIfTrue="1">
       <formula>$G36="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="17" stopIfTrue="1">
       <formula>$G36="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="65" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="14" stopIfTrue="1">
       <formula>$G36="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="15" stopIfTrue="1">
       <formula>$G36="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I42">
-    <cfRule type="expression" dxfId="63" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="11" stopIfTrue="1">
       <formula>$C33="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="12" stopIfTrue="1">
       <formula>$C33="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="13" stopIfTrue="1">
       <formula>$C33="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="60" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="9" stopIfTrue="1">
       <formula>OR($G43="Planned",$G43="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="10" stopIfTrue="1">
       <formula>$G43="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="58" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="7" stopIfTrue="1">
       <formula>$G43="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="8" stopIfTrue="1">
       <formula>$G43="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="56" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="5" stopIfTrue="1">
       <formula>$G43="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="6" stopIfTrue="1">
       <formula>$G43="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="54" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="3" stopIfTrue="1">
       <formula>OR($G43="Planned",$G43="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="4" stopIfTrue="1">
       <formula>$G43="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="52" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="1" stopIfTrue="1">
       <formula>$G43="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
       <formula>$G43="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5594,11 +5505,11 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6715,7 +6626,7 @@
         <v>27</v>
       </c>
       <c r="D26" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" s="43">
         <v>3</v>
@@ -6744,7 +6655,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="43">
         <v>3</v>
@@ -6773,7 +6684,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" s="43">
         <v>3</v>
@@ -6802,7 +6713,7 @@
         <v>27</v>
       </c>
       <c r="D29" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29" s="43">
         <v>3</v>
@@ -6831,7 +6742,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="43">
         <v>3</v>
@@ -6863,7 +6774,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F31" s="43">
         <v>1</v>
@@ -6892,7 +6803,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F32" s="43">
         <v>1</v>
@@ -6921,7 +6832,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33" s="43">
         <v>1</v>
@@ -6933,31 +6844,6 @@
         <v>86</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="43">
-        <v>27</v>
-      </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="43">
-        <v>3</v>
-      </c>
-      <c r="E34" s="43">
-        <v>3</v>
-      </c>
-      <c r="F34" s="43">
-        <v>1</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="49"/>
-      <c r="I34" s="44" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6966,136 +6852,125 @@
     <sortCondition ref="E5"/>
     <sortCondition ref="C5"/>
   </sortState>
-  <conditionalFormatting sqref="A4:I4 C18:D20 A18:A27 A5:H15 C22:H22 C21 A17:D17 I8:I32 E17:F20 A16:F16 H16:H21 B23:H27 A35:H137 A28:H32">
-    <cfRule type="expression" dxfId="44" priority="70" stopIfTrue="1">
+  <conditionalFormatting sqref="A4:I4 C18:D20 A18:A27 A5:H15 C22:H22 C21 A17:D17 I8:I32 E17:F20 A16:F16 H16:H21 B23:H27 A34:H136 A28:H32">
+    <cfRule type="expression" dxfId="38" priority="70" stopIfTrue="1">
       <formula>$C4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="71" stopIfTrue="1">
       <formula>$C4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="72" stopIfTrue="1">
       <formula>$C4="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="41" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="64" stopIfTrue="1">
       <formula>$C5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="65" stopIfTrue="1">
       <formula>$C5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="66" stopIfTrue="1">
       <formula>$C5="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="37" stopIfTrue="1">
       <formula>$C6="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="38" stopIfTrue="1">
       <formula>$C6="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="39" stopIfTrue="1">
       <formula>$C6="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
       <formula>$C7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="35" stopIfTrue="1">
       <formula>$C7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="36" stopIfTrue="1">
       <formula>$C7="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B20">
-    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="31" stopIfTrue="1">
       <formula>$C18="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="32" stopIfTrue="1">
       <formula>$C18="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="33" stopIfTrue="1">
       <formula>$C18="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="29" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="164" stopIfTrue="1">
       <formula>$C21="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="165" stopIfTrue="1">
       <formula>$C21="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="166" stopIfTrue="1">
       <formula>$C21="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
       <formula>$C21="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="26" stopIfTrue="1">
       <formula>$C21="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
       <formula>$C21="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21 F21">
-    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
       <formula>$C21="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="23" stopIfTrue="1">
       <formula>$C21="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="24" stopIfTrue="1">
       <formula>$C21="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="19" stopIfTrue="1">
       <formula>$C21="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="20" stopIfTrue="1">
       <formula>$C21="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="21" stopIfTrue="1">
       <formula>$C21="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G21">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
       <formula>$C16="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
       <formula>$C16="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="18" stopIfTrue="1">
       <formula>$C16="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:G33 I33">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>$C33="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>$C33="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>$C33="Removed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:I34">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
-      <formula>$C34="Done"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>$C34="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
-      <formula>$C34="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
@@ -7110,7 +6985,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C65564:C65673 IY65564:IY65673 SU65564:SU65673 ACQ65564:ACQ65673 AMM65564:AMM65673 AWI65564:AWI65673 BGE65564:BGE65673 BQA65564:BQA65673 BZW65564:BZW65673 CJS65564:CJS65673 CTO65564:CTO65673 DDK65564:DDK65673 DNG65564:DNG65673 DXC65564:DXC65673 EGY65564:EGY65673 EQU65564:EQU65673 FAQ65564:FAQ65673 FKM65564:FKM65673 FUI65564:FUI65673 GEE65564:GEE65673 GOA65564:GOA65673 GXW65564:GXW65673 HHS65564:HHS65673 HRO65564:HRO65673 IBK65564:IBK65673 ILG65564:ILG65673 IVC65564:IVC65673 JEY65564:JEY65673 JOU65564:JOU65673 JYQ65564:JYQ65673 KIM65564:KIM65673 KSI65564:KSI65673 LCE65564:LCE65673 LMA65564:LMA65673 LVW65564:LVW65673 MFS65564:MFS65673 MPO65564:MPO65673 MZK65564:MZK65673 NJG65564:NJG65673 NTC65564:NTC65673 OCY65564:OCY65673 OMU65564:OMU65673 OWQ65564:OWQ65673 PGM65564:PGM65673 PQI65564:PQI65673 QAE65564:QAE65673 QKA65564:QKA65673 QTW65564:QTW65673 RDS65564:RDS65673 RNO65564:RNO65673 RXK65564:RXK65673 SHG65564:SHG65673 SRC65564:SRC65673 TAY65564:TAY65673 TKU65564:TKU65673 TUQ65564:TUQ65673 UEM65564:UEM65673 UOI65564:UOI65673 UYE65564:UYE65673 VIA65564:VIA65673 VRW65564:VRW65673 WBS65564:WBS65673 WLO65564:WLO65673 WVK65564:WVK65673 C131100:C131209 IY131100:IY131209 SU131100:SU131209 ACQ131100:ACQ131209 AMM131100:AMM131209 AWI131100:AWI131209 BGE131100:BGE131209 BQA131100:BQA131209 BZW131100:BZW131209 CJS131100:CJS131209 CTO131100:CTO131209 DDK131100:DDK131209 DNG131100:DNG131209 DXC131100:DXC131209 EGY131100:EGY131209 EQU131100:EQU131209 FAQ131100:FAQ131209 FKM131100:FKM131209 FUI131100:FUI131209 GEE131100:GEE131209 GOA131100:GOA131209 GXW131100:GXW131209 HHS131100:HHS131209 HRO131100:HRO131209 IBK131100:IBK131209 ILG131100:ILG131209 IVC131100:IVC131209 JEY131100:JEY131209 JOU131100:JOU131209 JYQ131100:JYQ131209 KIM131100:KIM131209 KSI131100:KSI131209 LCE131100:LCE131209 LMA131100:LMA131209 LVW131100:LVW131209 MFS131100:MFS131209 MPO131100:MPO131209 MZK131100:MZK131209 NJG131100:NJG131209 NTC131100:NTC131209 OCY131100:OCY131209 OMU131100:OMU131209 OWQ131100:OWQ131209 PGM131100:PGM131209 PQI131100:PQI131209 QAE131100:QAE131209 QKA131100:QKA131209 QTW131100:QTW131209 RDS131100:RDS131209 RNO131100:RNO131209 RXK131100:RXK131209 SHG131100:SHG131209 SRC131100:SRC131209 TAY131100:TAY131209 TKU131100:TKU131209 TUQ131100:TUQ131209 UEM131100:UEM131209 UOI131100:UOI131209 UYE131100:UYE131209 VIA131100:VIA131209 VRW131100:VRW131209 WBS131100:WBS131209 WLO131100:WLO131209 WVK131100:WVK131209 C196636:C196745 IY196636:IY196745 SU196636:SU196745 ACQ196636:ACQ196745 AMM196636:AMM196745 AWI196636:AWI196745 BGE196636:BGE196745 BQA196636:BQA196745 BZW196636:BZW196745 CJS196636:CJS196745 CTO196636:CTO196745 DDK196636:DDK196745 DNG196636:DNG196745 DXC196636:DXC196745 EGY196636:EGY196745 EQU196636:EQU196745 FAQ196636:FAQ196745 FKM196636:FKM196745 FUI196636:FUI196745 GEE196636:GEE196745 GOA196636:GOA196745 GXW196636:GXW196745 HHS196636:HHS196745 HRO196636:HRO196745 IBK196636:IBK196745 ILG196636:ILG196745 IVC196636:IVC196745 JEY196636:JEY196745 JOU196636:JOU196745 JYQ196636:JYQ196745 KIM196636:KIM196745 KSI196636:KSI196745 LCE196636:LCE196745 LMA196636:LMA196745 LVW196636:LVW196745 MFS196636:MFS196745 MPO196636:MPO196745 MZK196636:MZK196745 NJG196636:NJG196745 NTC196636:NTC196745 OCY196636:OCY196745 OMU196636:OMU196745 OWQ196636:OWQ196745 PGM196636:PGM196745 PQI196636:PQI196745 QAE196636:QAE196745 QKA196636:QKA196745 QTW196636:QTW196745 RDS196636:RDS196745 RNO196636:RNO196745 RXK196636:RXK196745 SHG196636:SHG196745 SRC196636:SRC196745 TAY196636:TAY196745 TKU196636:TKU196745 TUQ196636:TUQ196745 UEM196636:UEM196745 UOI196636:UOI196745 UYE196636:UYE196745 VIA196636:VIA196745 VRW196636:VRW196745 WBS196636:WBS196745 WLO196636:WLO196745 WVK196636:WVK196745 C262172:C262281 IY262172:IY262281 SU262172:SU262281 ACQ262172:ACQ262281 AMM262172:AMM262281 AWI262172:AWI262281 BGE262172:BGE262281 BQA262172:BQA262281 BZW262172:BZW262281 CJS262172:CJS262281 CTO262172:CTO262281 DDK262172:DDK262281 DNG262172:DNG262281 DXC262172:DXC262281 EGY262172:EGY262281 EQU262172:EQU262281 FAQ262172:FAQ262281 FKM262172:FKM262281 FUI262172:FUI262281 GEE262172:GEE262281 GOA262172:GOA262281 GXW262172:GXW262281 HHS262172:HHS262281 HRO262172:HRO262281 IBK262172:IBK262281 ILG262172:ILG262281 IVC262172:IVC262281 JEY262172:JEY262281 JOU262172:JOU262281 JYQ262172:JYQ262281 KIM262172:KIM262281 KSI262172:KSI262281 LCE262172:LCE262281 LMA262172:LMA262281 LVW262172:LVW262281 MFS262172:MFS262281 MPO262172:MPO262281 MZK262172:MZK262281 NJG262172:NJG262281 NTC262172:NTC262281 OCY262172:OCY262281 OMU262172:OMU262281 OWQ262172:OWQ262281 PGM262172:PGM262281 PQI262172:PQI262281 QAE262172:QAE262281 QKA262172:QKA262281 QTW262172:QTW262281 RDS262172:RDS262281 RNO262172:RNO262281 RXK262172:RXK262281 SHG262172:SHG262281 SRC262172:SRC262281 TAY262172:TAY262281 TKU262172:TKU262281 TUQ262172:TUQ262281 UEM262172:UEM262281 UOI262172:UOI262281 UYE262172:UYE262281 VIA262172:VIA262281 VRW262172:VRW262281 WBS262172:WBS262281 WLO262172:WLO262281 WVK262172:WVK262281 C327708:C327817 IY327708:IY327817 SU327708:SU327817 ACQ327708:ACQ327817 AMM327708:AMM327817 AWI327708:AWI327817 BGE327708:BGE327817 BQA327708:BQA327817 BZW327708:BZW327817 CJS327708:CJS327817 CTO327708:CTO327817 DDK327708:DDK327817 DNG327708:DNG327817 DXC327708:DXC327817 EGY327708:EGY327817 EQU327708:EQU327817 FAQ327708:FAQ327817 FKM327708:FKM327817 FUI327708:FUI327817 GEE327708:GEE327817 GOA327708:GOA327817 GXW327708:GXW327817 HHS327708:HHS327817 HRO327708:HRO327817 IBK327708:IBK327817 ILG327708:ILG327817 IVC327708:IVC327817 JEY327708:JEY327817 JOU327708:JOU327817 JYQ327708:JYQ327817 KIM327708:KIM327817 KSI327708:KSI327817 LCE327708:LCE327817 LMA327708:LMA327817 LVW327708:LVW327817 MFS327708:MFS327817 MPO327708:MPO327817 MZK327708:MZK327817 NJG327708:NJG327817 NTC327708:NTC327817 OCY327708:OCY327817 OMU327708:OMU327817 OWQ327708:OWQ327817 PGM327708:PGM327817 PQI327708:PQI327817 QAE327708:QAE327817 QKA327708:QKA327817 QTW327708:QTW327817 RDS327708:RDS327817 RNO327708:RNO327817 RXK327708:RXK327817 SHG327708:SHG327817 SRC327708:SRC327817 TAY327708:TAY327817 TKU327708:TKU327817 TUQ327708:TUQ327817 UEM327708:UEM327817 UOI327708:UOI327817 UYE327708:UYE327817 VIA327708:VIA327817 VRW327708:VRW327817 WBS327708:WBS327817 WLO327708:WLO327817 WVK327708:WVK327817 C393244:C393353 IY393244:IY393353 SU393244:SU393353 ACQ393244:ACQ393353 AMM393244:AMM393353 AWI393244:AWI393353 BGE393244:BGE393353 BQA393244:BQA393353 BZW393244:BZW393353 CJS393244:CJS393353 CTO393244:CTO393353 DDK393244:DDK393353 DNG393244:DNG393353 DXC393244:DXC393353 EGY393244:EGY393353 EQU393244:EQU393353 FAQ393244:FAQ393353 FKM393244:FKM393353 FUI393244:FUI393353 GEE393244:GEE393353 GOA393244:GOA393353 GXW393244:GXW393353 HHS393244:HHS393353 HRO393244:HRO393353 IBK393244:IBK393353 ILG393244:ILG393353 IVC393244:IVC393353 JEY393244:JEY393353 JOU393244:JOU393353 JYQ393244:JYQ393353 KIM393244:KIM393353 KSI393244:KSI393353 LCE393244:LCE393353 LMA393244:LMA393353 LVW393244:LVW393353 MFS393244:MFS393353 MPO393244:MPO393353 MZK393244:MZK393353 NJG393244:NJG393353 NTC393244:NTC393353 OCY393244:OCY393353 OMU393244:OMU393353 OWQ393244:OWQ393353 PGM393244:PGM393353 PQI393244:PQI393353 QAE393244:QAE393353 QKA393244:QKA393353 QTW393244:QTW393353 RDS393244:RDS393353 RNO393244:RNO393353 RXK393244:RXK393353 SHG393244:SHG393353 SRC393244:SRC393353 TAY393244:TAY393353 TKU393244:TKU393353 TUQ393244:TUQ393353 UEM393244:UEM393353 UOI393244:UOI393353 UYE393244:UYE393353 VIA393244:VIA393353 VRW393244:VRW393353 WBS393244:WBS393353 WLO393244:WLO393353 WVK393244:WVK393353 C458780:C458889 IY458780:IY458889 SU458780:SU458889 ACQ458780:ACQ458889 AMM458780:AMM458889 AWI458780:AWI458889 BGE458780:BGE458889 BQA458780:BQA458889 BZW458780:BZW458889 CJS458780:CJS458889 CTO458780:CTO458889 DDK458780:DDK458889 DNG458780:DNG458889 DXC458780:DXC458889 EGY458780:EGY458889 EQU458780:EQU458889 FAQ458780:FAQ458889 FKM458780:FKM458889 FUI458780:FUI458889 GEE458780:GEE458889 GOA458780:GOA458889 GXW458780:GXW458889 HHS458780:HHS458889 HRO458780:HRO458889 IBK458780:IBK458889 ILG458780:ILG458889 IVC458780:IVC458889 JEY458780:JEY458889 JOU458780:JOU458889 JYQ458780:JYQ458889 KIM458780:KIM458889 KSI458780:KSI458889 LCE458780:LCE458889 LMA458780:LMA458889 LVW458780:LVW458889 MFS458780:MFS458889 MPO458780:MPO458889 MZK458780:MZK458889 NJG458780:NJG458889 NTC458780:NTC458889 OCY458780:OCY458889 OMU458780:OMU458889 OWQ458780:OWQ458889 PGM458780:PGM458889 PQI458780:PQI458889 QAE458780:QAE458889 QKA458780:QKA458889 QTW458780:QTW458889 RDS458780:RDS458889 RNO458780:RNO458889 RXK458780:RXK458889 SHG458780:SHG458889 SRC458780:SRC458889 TAY458780:TAY458889 TKU458780:TKU458889 TUQ458780:TUQ458889 UEM458780:UEM458889 UOI458780:UOI458889 UYE458780:UYE458889 VIA458780:VIA458889 VRW458780:VRW458889 WBS458780:WBS458889 WLO458780:WLO458889 WVK458780:WVK458889 C524316:C524425 IY524316:IY524425 SU524316:SU524425 ACQ524316:ACQ524425 AMM524316:AMM524425 AWI524316:AWI524425 BGE524316:BGE524425 BQA524316:BQA524425 BZW524316:BZW524425 CJS524316:CJS524425 CTO524316:CTO524425 DDK524316:DDK524425 DNG524316:DNG524425 DXC524316:DXC524425 EGY524316:EGY524425 EQU524316:EQU524425 FAQ524316:FAQ524425 FKM524316:FKM524425 FUI524316:FUI524425 GEE524316:GEE524425 GOA524316:GOA524425 GXW524316:GXW524425 HHS524316:HHS524425 HRO524316:HRO524425 IBK524316:IBK524425 ILG524316:ILG524425 IVC524316:IVC524425 JEY524316:JEY524425 JOU524316:JOU524425 JYQ524316:JYQ524425 KIM524316:KIM524425 KSI524316:KSI524425 LCE524316:LCE524425 LMA524316:LMA524425 LVW524316:LVW524425 MFS524316:MFS524425 MPO524316:MPO524425 MZK524316:MZK524425 NJG524316:NJG524425 NTC524316:NTC524425 OCY524316:OCY524425 OMU524316:OMU524425 OWQ524316:OWQ524425 PGM524316:PGM524425 PQI524316:PQI524425 QAE524316:QAE524425 QKA524316:QKA524425 QTW524316:QTW524425 RDS524316:RDS524425 RNO524316:RNO524425 RXK524316:RXK524425 SHG524316:SHG524425 SRC524316:SRC524425 TAY524316:TAY524425 TKU524316:TKU524425 TUQ524316:TUQ524425 UEM524316:UEM524425 UOI524316:UOI524425 UYE524316:UYE524425 VIA524316:VIA524425 VRW524316:VRW524425 WBS524316:WBS524425 WLO524316:WLO524425 WVK524316:WVK524425 C589852:C589961 IY589852:IY589961 SU589852:SU589961 ACQ589852:ACQ589961 AMM589852:AMM589961 AWI589852:AWI589961 BGE589852:BGE589961 BQA589852:BQA589961 BZW589852:BZW589961 CJS589852:CJS589961 CTO589852:CTO589961 DDK589852:DDK589961 DNG589852:DNG589961 DXC589852:DXC589961 EGY589852:EGY589961 EQU589852:EQU589961 FAQ589852:FAQ589961 FKM589852:FKM589961 FUI589852:FUI589961 GEE589852:GEE589961 GOA589852:GOA589961 GXW589852:GXW589961 HHS589852:HHS589961 HRO589852:HRO589961 IBK589852:IBK589961 ILG589852:ILG589961 IVC589852:IVC589961 JEY589852:JEY589961 JOU589852:JOU589961 JYQ589852:JYQ589961 KIM589852:KIM589961 KSI589852:KSI589961 LCE589852:LCE589961 LMA589852:LMA589961 LVW589852:LVW589961 MFS589852:MFS589961 MPO589852:MPO589961 MZK589852:MZK589961 NJG589852:NJG589961 NTC589852:NTC589961 OCY589852:OCY589961 OMU589852:OMU589961 OWQ589852:OWQ589961 PGM589852:PGM589961 PQI589852:PQI589961 QAE589852:QAE589961 QKA589852:QKA589961 QTW589852:QTW589961 RDS589852:RDS589961 RNO589852:RNO589961 RXK589852:RXK589961 SHG589852:SHG589961 SRC589852:SRC589961 TAY589852:TAY589961 TKU589852:TKU589961 TUQ589852:TUQ589961 UEM589852:UEM589961 UOI589852:UOI589961 UYE589852:UYE589961 VIA589852:VIA589961 VRW589852:VRW589961 WBS589852:WBS589961 WLO589852:WLO589961 WVK589852:WVK589961 C655388:C655497 IY655388:IY655497 SU655388:SU655497 ACQ655388:ACQ655497 AMM655388:AMM655497 AWI655388:AWI655497 BGE655388:BGE655497 BQA655388:BQA655497 BZW655388:BZW655497 CJS655388:CJS655497 CTO655388:CTO655497 DDK655388:DDK655497 DNG655388:DNG655497 DXC655388:DXC655497 EGY655388:EGY655497 EQU655388:EQU655497 FAQ655388:FAQ655497 FKM655388:FKM655497 FUI655388:FUI655497 GEE655388:GEE655497 GOA655388:GOA655497 GXW655388:GXW655497 HHS655388:HHS655497 HRO655388:HRO655497 IBK655388:IBK655497 ILG655388:ILG655497 IVC655388:IVC655497 JEY655388:JEY655497 JOU655388:JOU655497 JYQ655388:JYQ655497 KIM655388:KIM655497 KSI655388:KSI655497 LCE655388:LCE655497 LMA655388:LMA655497 LVW655388:LVW655497 MFS655388:MFS655497 MPO655388:MPO655497 MZK655388:MZK655497 NJG655388:NJG655497 NTC655388:NTC655497 OCY655388:OCY655497 OMU655388:OMU655497 OWQ655388:OWQ655497 PGM655388:PGM655497 PQI655388:PQI655497 QAE655388:QAE655497 QKA655388:QKA655497 QTW655388:QTW655497 RDS655388:RDS655497 RNO655388:RNO655497 RXK655388:RXK655497 SHG655388:SHG655497 SRC655388:SRC655497 TAY655388:TAY655497 TKU655388:TKU655497 TUQ655388:TUQ655497 UEM655388:UEM655497 UOI655388:UOI655497 UYE655388:UYE655497 VIA655388:VIA655497 VRW655388:VRW655497 WBS655388:WBS655497 WLO655388:WLO655497 WVK655388:WVK655497 C720924:C721033 IY720924:IY721033 SU720924:SU721033 ACQ720924:ACQ721033 AMM720924:AMM721033 AWI720924:AWI721033 BGE720924:BGE721033 BQA720924:BQA721033 BZW720924:BZW721033 CJS720924:CJS721033 CTO720924:CTO721033 DDK720924:DDK721033 DNG720924:DNG721033 DXC720924:DXC721033 EGY720924:EGY721033 EQU720924:EQU721033 FAQ720924:FAQ721033 FKM720924:FKM721033 FUI720924:FUI721033 GEE720924:GEE721033 GOA720924:GOA721033 GXW720924:GXW721033 HHS720924:HHS721033 HRO720924:HRO721033 IBK720924:IBK721033 ILG720924:ILG721033 IVC720924:IVC721033 JEY720924:JEY721033 JOU720924:JOU721033 JYQ720924:JYQ721033 KIM720924:KIM721033 KSI720924:KSI721033 LCE720924:LCE721033 LMA720924:LMA721033 LVW720924:LVW721033 MFS720924:MFS721033 MPO720924:MPO721033 MZK720924:MZK721033 NJG720924:NJG721033 NTC720924:NTC721033 OCY720924:OCY721033 OMU720924:OMU721033 OWQ720924:OWQ721033 PGM720924:PGM721033 PQI720924:PQI721033 QAE720924:QAE721033 QKA720924:QKA721033 QTW720924:QTW721033 RDS720924:RDS721033 RNO720924:RNO721033 RXK720924:RXK721033 SHG720924:SHG721033 SRC720924:SRC721033 TAY720924:TAY721033 TKU720924:TKU721033 TUQ720924:TUQ721033 UEM720924:UEM721033 UOI720924:UOI721033 UYE720924:UYE721033 VIA720924:VIA721033 VRW720924:VRW721033 WBS720924:WBS721033 WLO720924:WLO721033 WVK720924:WVK721033 C786460:C786569 IY786460:IY786569 SU786460:SU786569 ACQ786460:ACQ786569 AMM786460:AMM786569 AWI786460:AWI786569 BGE786460:BGE786569 BQA786460:BQA786569 BZW786460:BZW786569 CJS786460:CJS786569 CTO786460:CTO786569 DDK786460:DDK786569 DNG786460:DNG786569 DXC786460:DXC786569 EGY786460:EGY786569 EQU786460:EQU786569 FAQ786460:FAQ786569 FKM786460:FKM786569 FUI786460:FUI786569 GEE786460:GEE786569 GOA786460:GOA786569 GXW786460:GXW786569 HHS786460:HHS786569 HRO786460:HRO786569 IBK786460:IBK786569 ILG786460:ILG786569 IVC786460:IVC786569 JEY786460:JEY786569 JOU786460:JOU786569 JYQ786460:JYQ786569 KIM786460:KIM786569 KSI786460:KSI786569 LCE786460:LCE786569 LMA786460:LMA786569 LVW786460:LVW786569 MFS786460:MFS786569 MPO786460:MPO786569 MZK786460:MZK786569 NJG786460:NJG786569 NTC786460:NTC786569 OCY786460:OCY786569 OMU786460:OMU786569 OWQ786460:OWQ786569 PGM786460:PGM786569 PQI786460:PQI786569 QAE786460:QAE786569 QKA786460:QKA786569 QTW786460:QTW786569 RDS786460:RDS786569 RNO786460:RNO786569 RXK786460:RXK786569 SHG786460:SHG786569 SRC786460:SRC786569 TAY786460:TAY786569 TKU786460:TKU786569 TUQ786460:TUQ786569 UEM786460:UEM786569 UOI786460:UOI786569 UYE786460:UYE786569 VIA786460:VIA786569 VRW786460:VRW786569 WBS786460:WBS786569 WLO786460:WLO786569 WVK786460:WVK786569 C851996:C852105 IY851996:IY852105 SU851996:SU852105 ACQ851996:ACQ852105 AMM851996:AMM852105 AWI851996:AWI852105 BGE851996:BGE852105 BQA851996:BQA852105 BZW851996:BZW852105 CJS851996:CJS852105 CTO851996:CTO852105 DDK851996:DDK852105 DNG851996:DNG852105 DXC851996:DXC852105 EGY851996:EGY852105 EQU851996:EQU852105 FAQ851996:FAQ852105 FKM851996:FKM852105 FUI851996:FUI852105 GEE851996:GEE852105 GOA851996:GOA852105 GXW851996:GXW852105 HHS851996:HHS852105 HRO851996:HRO852105 IBK851996:IBK852105 ILG851996:ILG852105 IVC851996:IVC852105 JEY851996:JEY852105 JOU851996:JOU852105 JYQ851996:JYQ852105 KIM851996:KIM852105 KSI851996:KSI852105 LCE851996:LCE852105 LMA851996:LMA852105 LVW851996:LVW852105 MFS851996:MFS852105 MPO851996:MPO852105 MZK851996:MZK852105 NJG851996:NJG852105 NTC851996:NTC852105 OCY851996:OCY852105 OMU851996:OMU852105 OWQ851996:OWQ852105 PGM851996:PGM852105 PQI851996:PQI852105 QAE851996:QAE852105 QKA851996:QKA852105 QTW851996:QTW852105 RDS851996:RDS852105 RNO851996:RNO852105 RXK851996:RXK852105 SHG851996:SHG852105 SRC851996:SRC852105 TAY851996:TAY852105 TKU851996:TKU852105 TUQ851996:TUQ852105 UEM851996:UEM852105 UOI851996:UOI852105 UYE851996:UYE852105 VIA851996:VIA852105 VRW851996:VRW852105 WBS851996:WBS852105 WLO851996:WLO852105 WVK851996:WVK852105 C917532:C917641 IY917532:IY917641 SU917532:SU917641 ACQ917532:ACQ917641 AMM917532:AMM917641 AWI917532:AWI917641 BGE917532:BGE917641 BQA917532:BQA917641 BZW917532:BZW917641 CJS917532:CJS917641 CTO917532:CTO917641 DDK917532:DDK917641 DNG917532:DNG917641 DXC917532:DXC917641 EGY917532:EGY917641 EQU917532:EQU917641 FAQ917532:FAQ917641 FKM917532:FKM917641 FUI917532:FUI917641 GEE917532:GEE917641 GOA917532:GOA917641 GXW917532:GXW917641 HHS917532:HHS917641 HRO917532:HRO917641 IBK917532:IBK917641 ILG917532:ILG917641 IVC917532:IVC917641 JEY917532:JEY917641 JOU917532:JOU917641 JYQ917532:JYQ917641 KIM917532:KIM917641 KSI917532:KSI917641 LCE917532:LCE917641 LMA917532:LMA917641 LVW917532:LVW917641 MFS917532:MFS917641 MPO917532:MPO917641 MZK917532:MZK917641 NJG917532:NJG917641 NTC917532:NTC917641 OCY917532:OCY917641 OMU917532:OMU917641 OWQ917532:OWQ917641 PGM917532:PGM917641 PQI917532:PQI917641 QAE917532:QAE917641 QKA917532:QKA917641 QTW917532:QTW917641 RDS917532:RDS917641 RNO917532:RNO917641 RXK917532:RXK917641 SHG917532:SHG917641 SRC917532:SRC917641 TAY917532:TAY917641 TKU917532:TKU917641 TUQ917532:TUQ917641 UEM917532:UEM917641 UOI917532:UOI917641 UYE917532:UYE917641 VIA917532:VIA917641 VRW917532:VRW917641 WBS917532:WBS917641 WLO917532:WLO917641 WVK917532:WVK917641 C983068:C983177 IY983068:IY983177 SU983068:SU983177 ACQ983068:ACQ983177 AMM983068:AMM983177 AWI983068:AWI983177 BGE983068:BGE983177 BQA983068:BQA983177 BZW983068:BZW983177 CJS983068:CJS983177 CTO983068:CTO983177 DDK983068:DDK983177 DNG983068:DNG983177 DXC983068:DXC983177 EGY983068:EGY983177 EQU983068:EQU983177 FAQ983068:FAQ983177 FKM983068:FKM983177 FUI983068:FUI983177 GEE983068:GEE983177 GOA983068:GOA983177 GXW983068:GXW983177 HHS983068:HHS983177 HRO983068:HRO983177 IBK983068:IBK983177 ILG983068:ILG983177 IVC983068:IVC983177 JEY983068:JEY983177 JOU983068:JOU983177 JYQ983068:JYQ983177 KIM983068:KIM983177 KSI983068:KSI983177 LCE983068:LCE983177 LMA983068:LMA983177 LVW983068:LVW983177 MFS983068:MFS983177 MPO983068:MPO983177 MZK983068:MZK983177 NJG983068:NJG983177 NTC983068:NTC983177 OCY983068:OCY983177 OMU983068:OMU983177 OWQ983068:OWQ983177 PGM983068:PGM983177 PQI983068:PQI983177 QAE983068:QAE983177 QKA983068:QKA983177 QTW983068:QTW983177 RDS983068:RDS983177 RNO983068:RNO983177 RXK983068:RXK983177 SHG983068:SHG983177 SRC983068:SRC983177 TAY983068:TAY983177 TKU983068:TKU983177 TUQ983068:TUQ983177 UEM983068:UEM983177 UOI983068:UOI983177 UYE983068:UYE983177 VIA983068:VIA983177 VRW983068:VRW983177 WBS983068:WBS983177 WLO983068:WLO983177 WVK983068:WVK983177 WVK983042:WVK983066 C65538:C65562 IY65538:IY65562 SU65538:SU65562 ACQ65538:ACQ65562 AMM65538:AMM65562 AWI65538:AWI65562 BGE65538:BGE65562 BQA65538:BQA65562 BZW65538:BZW65562 CJS65538:CJS65562 CTO65538:CTO65562 DDK65538:DDK65562 DNG65538:DNG65562 DXC65538:DXC65562 EGY65538:EGY65562 EQU65538:EQU65562 FAQ65538:FAQ65562 FKM65538:FKM65562 FUI65538:FUI65562 GEE65538:GEE65562 GOA65538:GOA65562 GXW65538:GXW65562 HHS65538:HHS65562 HRO65538:HRO65562 IBK65538:IBK65562 ILG65538:ILG65562 IVC65538:IVC65562 JEY65538:JEY65562 JOU65538:JOU65562 JYQ65538:JYQ65562 KIM65538:KIM65562 KSI65538:KSI65562 LCE65538:LCE65562 LMA65538:LMA65562 LVW65538:LVW65562 MFS65538:MFS65562 MPO65538:MPO65562 MZK65538:MZK65562 NJG65538:NJG65562 NTC65538:NTC65562 OCY65538:OCY65562 OMU65538:OMU65562 OWQ65538:OWQ65562 PGM65538:PGM65562 PQI65538:PQI65562 QAE65538:QAE65562 QKA65538:QKA65562 QTW65538:QTW65562 RDS65538:RDS65562 RNO65538:RNO65562 RXK65538:RXK65562 SHG65538:SHG65562 SRC65538:SRC65562 TAY65538:TAY65562 TKU65538:TKU65562 TUQ65538:TUQ65562 UEM65538:UEM65562 UOI65538:UOI65562 UYE65538:UYE65562 VIA65538:VIA65562 VRW65538:VRW65562 WBS65538:WBS65562 WLO65538:WLO65562 WVK65538:WVK65562 C131074:C131098 IY131074:IY131098 SU131074:SU131098 ACQ131074:ACQ131098 AMM131074:AMM131098 AWI131074:AWI131098 BGE131074:BGE131098 BQA131074:BQA131098 BZW131074:BZW131098 CJS131074:CJS131098 CTO131074:CTO131098 DDK131074:DDK131098 DNG131074:DNG131098 DXC131074:DXC131098 EGY131074:EGY131098 EQU131074:EQU131098 FAQ131074:FAQ131098 FKM131074:FKM131098 FUI131074:FUI131098 GEE131074:GEE131098 GOA131074:GOA131098 GXW131074:GXW131098 HHS131074:HHS131098 HRO131074:HRO131098 IBK131074:IBK131098 ILG131074:ILG131098 IVC131074:IVC131098 JEY131074:JEY131098 JOU131074:JOU131098 JYQ131074:JYQ131098 KIM131074:KIM131098 KSI131074:KSI131098 LCE131074:LCE131098 LMA131074:LMA131098 LVW131074:LVW131098 MFS131074:MFS131098 MPO131074:MPO131098 MZK131074:MZK131098 NJG131074:NJG131098 NTC131074:NTC131098 OCY131074:OCY131098 OMU131074:OMU131098 OWQ131074:OWQ131098 PGM131074:PGM131098 PQI131074:PQI131098 QAE131074:QAE131098 QKA131074:QKA131098 QTW131074:QTW131098 RDS131074:RDS131098 RNO131074:RNO131098 RXK131074:RXK131098 SHG131074:SHG131098 SRC131074:SRC131098 TAY131074:TAY131098 TKU131074:TKU131098 TUQ131074:TUQ131098 UEM131074:UEM131098 UOI131074:UOI131098 UYE131074:UYE131098 VIA131074:VIA131098 VRW131074:VRW131098 WBS131074:WBS131098 WLO131074:WLO131098 WVK131074:WVK131098 C196610:C196634 IY196610:IY196634 SU196610:SU196634 ACQ196610:ACQ196634 AMM196610:AMM196634 AWI196610:AWI196634 BGE196610:BGE196634 BQA196610:BQA196634 BZW196610:BZW196634 CJS196610:CJS196634 CTO196610:CTO196634 DDK196610:DDK196634 DNG196610:DNG196634 DXC196610:DXC196634 EGY196610:EGY196634 EQU196610:EQU196634 FAQ196610:FAQ196634 FKM196610:FKM196634 FUI196610:FUI196634 GEE196610:GEE196634 GOA196610:GOA196634 GXW196610:GXW196634 HHS196610:HHS196634 HRO196610:HRO196634 IBK196610:IBK196634 ILG196610:ILG196634 IVC196610:IVC196634 JEY196610:JEY196634 JOU196610:JOU196634 JYQ196610:JYQ196634 KIM196610:KIM196634 KSI196610:KSI196634 LCE196610:LCE196634 LMA196610:LMA196634 LVW196610:LVW196634 MFS196610:MFS196634 MPO196610:MPO196634 MZK196610:MZK196634 NJG196610:NJG196634 NTC196610:NTC196634 OCY196610:OCY196634 OMU196610:OMU196634 OWQ196610:OWQ196634 PGM196610:PGM196634 PQI196610:PQI196634 QAE196610:QAE196634 QKA196610:QKA196634 QTW196610:QTW196634 RDS196610:RDS196634 RNO196610:RNO196634 RXK196610:RXK196634 SHG196610:SHG196634 SRC196610:SRC196634 TAY196610:TAY196634 TKU196610:TKU196634 TUQ196610:TUQ196634 UEM196610:UEM196634 UOI196610:UOI196634 UYE196610:UYE196634 VIA196610:VIA196634 VRW196610:VRW196634 WBS196610:WBS196634 WLO196610:WLO196634 WVK196610:WVK196634 C262146:C262170 IY262146:IY262170 SU262146:SU262170 ACQ262146:ACQ262170 AMM262146:AMM262170 AWI262146:AWI262170 BGE262146:BGE262170 BQA262146:BQA262170 BZW262146:BZW262170 CJS262146:CJS262170 CTO262146:CTO262170 DDK262146:DDK262170 DNG262146:DNG262170 DXC262146:DXC262170 EGY262146:EGY262170 EQU262146:EQU262170 FAQ262146:FAQ262170 FKM262146:FKM262170 FUI262146:FUI262170 GEE262146:GEE262170 GOA262146:GOA262170 GXW262146:GXW262170 HHS262146:HHS262170 HRO262146:HRO262170 IBK262146:IBK262170 ILG262146:ILG262170 IVC262146:IVC262170 JEY262146:JEY262170 JOU262146:JOU262170 JYQ262146:JYQ262170 KIM262146:KIM262170 KSI262146:KSI262170 LCE262146:LCE262170 LMA262146:LMA262170 LVW262146:LVW262170 MFS262146:MFS262170 MPO262146:MPO262170 MZK262146:MZK262170 NJG262146:NJG262170 NTC262146:NTC262170 OCY262146:OCY262170 OMU262146:OMU262170 OWQ262146:OWQ262170 PGM262146:PGM262170 PQI262146:PQI262170 QAE262146:QAE262170 QKA262146:QKA262170 QTW262146:QTW262170 RDS262146:RDS262170 RNO262146:RNO262170 RXK262146:RXK262170 SHG262146:SHG262170 SRC262146:SRC262170 TAY262146:TAY262170 TKU262146:TKU262170 TUQ262146:TUQ262170 UEM262146:UEM262170 UOI262146:UOI262170 UYE262146:UYE262170 VIA262146:VIA262170 VRW262146:VRW262170 WBS262146:WBS262170 WLO262146:WLO262170 WVK262146:WVK262170 C327682:C327706 IY327682:IY327706 SU327682:SU327706 ACQ327682:ACQ327706 AMM327682:AMM327706 AWI327682:AWI327706 BGE327682:BGE327706 BQA327682:BQA327706 BZW327682:BZW327706 CJS327682:CJS327706 CTO327682:CTO327706 DDK327682:DDK327706 DNG327682:DNG327706 DXC327682:DXC327706 EGY327682:EGY327706 EQU327682:EQU327706 FAQ327682:FAQ327706 FKM327682:FKM327706 FUI327682:FUI327706 GEE327682:GEE327706 GOA327682:GOA327706 GXW327682:GXW327706 HHS327682:HHS327706 HRO327682:HRO327706 IBK327682:IBK327706 ILG327682:ILG327706 IVC327682:IVC327706 JEY327682:JEY327706 JOU327682:JOU327706 JYQ327682:JYQ327706 KIM327682:KIM327706 KSI327682:KSI327706 LCE327682:LCE327706 LMA327682:LMA327706 LVW327682:LVW327706 MFS327682:MFS327706 MPO327682:MPO327706 MZK327682:MZK327706 NJG327682:NJG327706 NTC327682:NTC327706 OCY327682:OCY327706 OMU327682:OMU327706 OWQ327682:OWQ327706 PGM327682:PGM327706 PQI327682:PQI327706 QAE327682:QAE327706 QKA327682:QKA327706 QTW327682:QTW327706 RDS327682:RDS327706 RNO327682:RNO327706 RXK327682:RXK327706 SHG327682:SHG327706 SRC327682:SRC327706 TAY327682:TAY327706 TKU327682:TKU327706 TUQ327682:TUQ327706 UEM327682:UEM327706 UOI327682:UOI327706 UYE327682:UYE327706 VIA327682:VIA327706 VRW327682:VRW327706 WBS327682:WBS327706 WLO327682:WLO327706 WVK327682:WVK327706 C393218:C393242 IY393218:IY393242 SU393218:SU393242 ACQ393218:ACQ393242 AMM393218:AMM393242 AWI393218:AWI393242 BGE393218:BGE393242 BQA393218:BQA393242 BZW393218:BZW393242 CJS393218:CJS393242 CTO393218:CTO393242 DDK393218:DDK393242 DNG393218:DNG393242 DXC393218:DXC393242 EGY393218:EGY393242 EQU393218:EQU393242 FAQ393218:FAQ393242 FKM393218:FKM393242 FUI393218:FUI393242 GEE393218:GEE393242 GOA393218:GOA393242 GXW393218:GXW393242 HHS393218:HHS393242 HRO393218:HRO393242 IBK393218:IBK393242 ILG393218:ILG393242 IVC393218:IVC393242 JEY393218:JEY393242 JOU393218:JOU393242 JYQ393218:JYQ393242 KIM393218:KIM393242 KSI393218:KSI393242 LCE393218:LCE393242 LMA393218:LMA393242 LVW393218:LVW393242 MFS393218:MFS393242 MPO393218:MPO393242 MZK393218:MZK393242 NJG393218:NJG393242 NTC393218:NTC393242 OCY393218:OCY393242 OMU393218:OMU393242 OWQ393218:OWQ393242 PGM393218:PGM393242 PQI393218:PQI393242 QAE393218:QAE393242 QKA393218:QKA393242 QTW393218:QTW393242 RDS393218:RDS393242 RNO393218:RNO393242 RXK393218:RXK393242 SHG393218:SHG393242 SRC393218:SRC393242 TAY393218:TAY393242 TKU393218:TKU393242 TUQ393218:TUQ393242 UEM393218:UEM393242 UOI393218:UOI393242 UYE393218:UYE393242 VIA393218:VIA393242 VRW393218:VRW393242 WBS393218:WBS393242 WLO393218:WLO393242 WVK393218:WVK393242 C458754:C458778 IY458754:IY458778 SU458754:SU458778 ACQ458754:ACQ458778 AMM458754:AMM458778 AWI458754:AWI458778 BGE458754:BGE458778 BQA458754:BQA458778 BZW458754:BZW458778 CJS458754:CJS458778 CTO458754:CTO458778 DDK458754:DDK458778 DNG458754:DNG458778 DXC458754:DXC458778 EGY458754:EGY458778 EQU458754:EQU458778 FAQ458754:FAQ458778 FKM458754:FKM458778 FUI458754:FUI458778 GEE458754:GEE458778 GOA458754:GOA458778 GXW458754:GXW458778 HHS458754:HHS458778 HRO458754:HRO458778 IBK458754:IBK458778 ILG458754:ILG458778 IVC458754:IVC458778 JEY458754:JEY458778 JOU458754:JOU458778 JYQ458754:JYQ458778 KIM458754:KIM458778 KSI458754:KSI458778 LCE458754:LCE458778 LMA458754:LMA458778 LVW458754:LVW458778 MFS458754:MFS458778 MPO458754:MPO458778 MZK458754:MZK458778 NJG458754:NJG458778 NTC458754:NTC458778 OCY458754:OCY458778 OMU458754:OMU458778 OWQ458754:OWQ458778 PGM458754:PGM458778 PQI458754:PQI458778 QAE458754:QAE458778 QKA458754:QKA458778 QTW458754:QTW458778 RDS458754:RDS458778 RNO458754:RNO458778 RXK458754:RXK458778 SHG458754:SHG458778 SRC458754:SRC458778 TAY458754:TAY458778 TKU458754:TKU458778 TUQ458754:TUQ458778 UEM458754:UEM458778 UOI458754:UOI458778 UYE458754:UYE458778 VIA458754:VIA458778 VRW458754:VRW458778 WBS458754:WBS458778 WLO458754:WLO458778 WVK458754:WVK458778 C524290:C524314 IY524290:IY524314 SU524290:SU524314 ACQ524290:ACQ524314 AMM524290:AMM524314 AWI524290:AWI524314 BGE524290:BGE524314 BQA524290:BQA524314 BZW524290:BZW524314 CJS524290:CJS524314 CTO524290:CTO524314 DDK524290:DDK524314 DNG524290:DNG524314 DXC524290:DXC524314 EGY524290:EGY524314 EQU524290:EQU524314 FAQ524290:FAQ524314 FKM524290:FKM524314 FUI524290:FUI524314 GEE524290:GEE524314 GOA524290:GOA524314 GXW524290:GXW524314 HHS524290:HHS524314 HRO524290:HRO524314 IBK524290:IBK524314 ILG524290:ILG524314 IVC524290:IVC524314 JEY524290:JEY524314 JOU524290:JOU524314 JYQ524290:JYQ524314 KIM524290:KIM524314 KSI524290:KSI524314 LCE524290:LCE524314 LMA524290:LMA524314 LVW524290:LVW524314 MFS524290:MFS524314 MPO524290:MPO524314 MZK524290:MZK524314 NJG524290:NJG524314 NTC524290:NTC524314 OCY524290:OCY524314 OMU524290:OMU524314 OWQ524290:OWQ524314 PGM524290:PGM524314 PQI524290:PQI524314 QAE524290:QAE524314 QKA524290:QKA524314 QTW524290:QTW524314 RDS524290:RDS524314 RNO524290:RNO524314 RXK524290:RXK524314 SHG524290:SHG524314 SRC524290:SRC524314 TAY524290:TAY524314 TKU524290:TKU524314 TUQ524290:TUQ524314 UEM524290:UEM524314 UOI524290:UOI524314 UYE524290:UYE524314 VIA524290:VIA524314 VRW524290:VRW524314 WBS524290:WBS524314 WLO524290:WLO524314 WVK524290:WVK524314 C589826:C589850 IY589826:IY589850 SU589826:SU589850 ACQ589826:ACQ589850 AMM589826:AMM589850 AWI589826:AWI589850 BGE589826:BGE589850 BQA589826:BQA589850 BZW589826:BZW589850 CJS589826:CJS589850 CTO589826:CTO589850 DDK589826:DDK589850 DNG589826:DNG589850 DXC589826:DXC589850 EGY589826:EGY589850 EQU589826:EQU589850 FAQ589826:FAQ589850 FKM589826:FKM589850 FUI589826:FUI589850 GEE589826:GEE589850 GOA589826:GOA589850 GXW589826:GXW589850 HHS589826:HHS589850 HRO589826:HRO589850 IBK589826:IBK589850 ILG589826:ILG589850 IVC589826:IVC589850 JEY589826:JEY589850 JOU589826:JOU589850 JYQ589826:JYQ589850 KIM589826:KIM589850 KSI589826:KSI589850 LCE589826:LCE589850 LMA589826:LMA589850 LVW589826:LVW589850 MFS589826:MFS589850 MPO589826:MPO589850 MZK589826:MZK589850 NJG589826:NJG589850 NTC589826:NTC589850 OCY589826:OCY589850 OMU589826:OMU589850 OWQ589826:OWQ589850 PGM589826:PGM589850 PQI589826:PQI589850 QAE589826:QAE589850 QKA589826:QKA589850 QTW589826:QTW589850 RDS589826:RDS589850 RNO589826:RNO589850 RXK589826:RXK589850 SHG589826:SHG589850 SRC589826:SRC589850 TAY589826:TAY589850 TKU589826:TKU589850 TUQ589826:TUQ589850 UEM589826:UEM589850 UOI589826:UOI589850 UYE589826:UYE589850 VIA589826:VIA589850 VRW589826:VRW589850 WBS589826:WBS589850 WLO589826:WLO589850 WVK589826:WVK589850 C655362:C655386 IY655362:IY655386 SU655362:SU655386 ACQ655362:ACQ655386 AMM655362:AMM655386 AWI655362:AWI655386 BGE655362:BGE655386 BQA655362:BQA655386 BZW655362:BZW655386 CJS655362:CJS655386 CTO655362:CTO655386 DDK655362:DDK655386 DNG655362:DNG655386 DXC655362:DXC655386 EGY655362:EGY655386 EQU655362:EQU655386 FAQ655362:FAQ655386 FKM655362:FKM655386 FUI655362:FUI655386 GEE655362:GEE655386 GOA655362:GOA655386 GXW655362:GXW655386 HHS655362:HHS655386 HRO655362:HRO655386 IBK655362:IBK655386 ILG655362:ILG655386 IVC655362:IVC655386 JEY655362:JEY655386 JOU655362:JOU655386 JYQ655362:JYQ655386 KIM655362:KIM655386 KSI655362:KSI655386 LCE655362:LCE655386 LMA655362:LMA655386 LVW655362:LVW655386 MFS655362:MFS655386 MPO655362:MPO655386 MZK655362:MZK655386 NJG655362:NJG655386 NTC655362:NTC655386 OCY655362:OCY655386 OMU655362:OMU655386 OWQ655362:OWQ655386 PGM655362:PGM655386 PQI655362:PQI655386 QAE655362:QAE655386 QKA655362:QKA655386 QTW655362:QTW655386 RDS655362:RDS655386 RNO655362:RNO655386 RXK655362:RXK655386 SHG655362:SHG655386 SRC655362:SRC655386 TAY655362:TAY655386 TKU655362:TKU655386 TUQ655362:TUQ655386 UEM655362:UEM655386 UOI655362:UOI655386 UYE655362:UYE655386 VIA655362:VIA655386 VRW655362:VRW655386 WBS655362:WBS655386 WLO655362:WLO655386 WVK655362:WVK655386 C720898:C720922 IY720898:IY720922 SU720898:SU720922 ACQ720898:ACQ720922 AMM720898:AMM720922 AWI720898:AWI720922 BGE720898:BGE720922 BQA720898:BQA720922 BZW720898:BZW720922 CJS720898:CJS720922 CTO720898:CTO720922 DDK720898:DDK720922 DNG720898:DNG720922 DXC720898:DXC720922 EGY720898:EGY720922 EQU720898:EQU720922 FAQ720898:FAQ720922 FKM720898:FKM720922 FUI720898:FUI720922 GEE720898:GEE720922 GOA720898:GOA720922 GXW720898:GXW720922 HHS720898:HHS720922 HRO720898:HRO720922 IBK720898:IBK720922 ILG720898:ILG720922 IVC720898:IVC720922 JEY720898:JEY720922 JOU720898:JOU720922 JYQ720898:JYQ720922 KIM720898:KIM720922 KSI720898:KSI720922 LCE720898:LCE720922 LMA720898:LMA720922 LVW720898:LVW720922 MFS720898:MFS720922 MPO720898:MPO720922 MZK720898:MZK720922 NJG720898:NJG720922 NTC720898:NTC720922 OCY720898:OCY720922 OMU720898:OMU720922 OWQ720898:OWQ720922 PGM720898:PGM720922 PQI720898:PQI720922 QAE720898:QAE720922 QKA720898:QKA720922 QTW720898:QTW720922 RDS720898:RDS720922 RNO720898:RNO720922 RXK720898:RXK720922 SHG720898:SHG720922 SRC720898:SRC720922 TAY720898:TAY720922 TKU720898:TKU720922 TUQ720898:TUQ720922 UEM720898:UEM720922 UOI720898:UOI720922 UYE720898:UYE720922 VIA720898:VIA720922 VRW720898:VRW720922 WBS720898:WBS720922 WLO720898:WLO720922 WVK720898:WVK720922 C786434:C786458 IY786434:IY786458 SU786434:SU786458 ACQ786434:ACQ786458 AMM786434:AMM786458 AWI786434:AWI786458 BGE786434:BGE786458 BQA786434:BQA786458 BZW786434:BZW786458 CJS786434:CJS786458 CTO786434:CTO786458 DDK786434:DDK786458 DNG786434:DNG786458 DXC786434:DXC786458 EGY786434:EGY786458 EQU786434:EQU786458 FAQ786434:FAQ786458 FKM786434:FKM786458 FUI786434:FUI786458 GEE786434:GEE786458 GOA786434:GOA786458 GXW786434:GXW786458 HHS786434:HHS786458 HRO786434:HRO786458 IBK786434:IBK786458 ILG786434:ILG786458 IVC786434:IVC786458 JEY786434:JEY786458 JOU786434:JOU786458 JYQ786434:JYQ786458 KIM786434:KIM786458 KSI786434:KSI786458 LCE786434:LCE786458 LMA786434:LMA786458 LVW786434:LVW786458 MFS786434:MFS786458 MPO786434:MPO786458 MZK786434:MZK786458 NJG786434:NJG786458 NTC786434:NTC786458 OCY786434:OCY786458 OMU786434:OMU786458 OWQ786434:OWQ786458 PGM786434:PGM786458 PQI786434:PQI786458 QAE786434:QAE786458 QKA786434:QKA786458 QTW786434:QTW786458 RDS786434:RDS786458 RNO786434:RNO786458 RXK786434:RXK786458 SHG786434:SHG786458 SRC786434:SRC786458 TAY786434:TAY786458 TKU786434:TKU786458 TUQ786434:TUQ786458 UEM786434:UEM786458 UOI786434:UOI786458 UYE786434:UYE786458 VIA786434:VIA786458 VRW786434:VRW786458 WBS786434:WBS786458 WLO786434:WLO786458 WVK786434:WVK786458 C851970:C851994 IY851970:IY851994 SU851970:SU851994 ACQ851970:ACQ851994 AMM851970:AMM851994 AWI851970:AWI851994 BGE851970:BGE851994 BQA851970:BQA851994 BZW851970:BZW851994 CJS851970:CJS851994 CTO851970:CTO851994 DDK851970:DDK851994 DNG851970:DNG851994 DXC851970:DXC851994 EGY851970:EGY851994 EQU851970:EQU851994 FAQ851970:FAQ851994 FKM851970:FKM851994 FUI851970:FUI851994 GEE851970:GEE851994 GOA851970:GOA851994 GXW851970:GXW851994 HHS851970:HHS851994 HRO851970:HRO851994 IBK851970:IBK851994 ILG851970:ILG851994 IVC851970:IVC851994 JEY851970:JEY851994 JOU851970:JOU851994 JYQ851970:JYQ851994 KIM851970:KIM851994 KSI851970:KSI851994 LCE851970:LCE851994 LMA851970:LMA851994 LVW851970:LVW851994 MFS851970:MFS851994 MPO851970:MPO851994 MZK851970:MZK851994 NJG851970:NJG851994 NTC851970:NTC851994 OCY851970:OCY851994 OMU851970:OMU851994 OWQ851970:OWQ851994 PGM851970:PGM851994 PQI851970:PQI851994 QAE851970:QAE851994 QKA851970:QKA851994 QTW851970:QTW851994 RDS851970:RDS851994 RNO851970:RNO851994 RXK851970:RXK851994 SHG851970:SHG851994 SRC851970:SRC851994 TAY851970:TAY851994 TKU851970:TKU851994 TUQ851970:TUQ851994 UEM851970:UEM851994 UOI851970:UOI851994 UYE851970:UYE851994 VIA851970:VIA851994 VRW851970:VRW851994 WBS851970:WBS851994 WLO851970:WLO851994 WVK851970:WVK851994 C917506:C917530 IY917506:IY917530 SU917506:SU917530 ACQ917506:ACQ917530 AMM917506:AMM917530 AWI917506:AWI917530 BGE917506:BGE917530 BQA917506:BQA917530 BZW917506:BZW917530 CJS917506:CJS917530 CTO917506:CTO917530 DDK917506:DDK917530 DNG917506:DNG917530 DXC917506:DXC917530 EGY917506:EGY917530 EQU917506:EQU917530 FAQ917506:FAQ917530 FKM917506:FKM917530 FUI917506:FUI917530 GEE917506:GEE917530 GOA917506:GOA917530 GXW917506:GXW917530 HHS917506:HHS917530 HRO917506:HRO917530 IBK917506:IBK917530 ILG917506:ILG917530 IVC917506:IVC917530 JEY917506:JEY917530 JOU917506:JOU917530 JYQ917506:JYQ917530 KIM917506:KIM917530 KSI917506:KSI917530 LCE917506:LCE917530 LMA917506:LMA917530 LVW917506:LVW917530 MFS917506:MFS917530 MPO917506:MPO917530 MZK917506:MZK917530 NJG917506:NJG917530 NTC917506:NTC917530 OCY917506:OCY917530 OMU917506:OMU917530 OWQ917506:OWQ917530 PGM917506:PGM917530 PQI917506:PQI917530 QAE917506:QAE917530 QKA917506:QKA917530 QTW917506:QTW917530 RDS917506:RDS917530 RNO917506:RNO917530 RXK917506:RXK917530 SHG917506:SHG917530 SRC917506:SRC917530 TAY917506:TAY917530 TKU917506:TKU917530 TUQ917506:TUQ917530 UEM917506:UEM917530 UOI917506:UOI917530 UYE917506:UYE917530 VIA917506:VIA917530 VRW917506:VRW917530 WBS917506:WBS917530 WLO917506:WLO917530 WVK917506:WVK917530 C983042:C983066 IY983042:IY983066 SU983042:SU983066 ACQ983042:ACQ983066 AMM983042:AMM983066 AWI983042:AWI983066 BGE983042:BGE983066 BQA983042:BQA983066 BZW983042:BZW983066 CJS983042:CJS983066 CTO983042:CTO983066 DDK983042:DDK983066 DNG983042:DNG983066 DXC983042:DXC983066 EGY983042:EGY983066 EQU983042:EQU983066 FAQ983042:FAQ983066 FKM983042:FKM983066 FUI983042:FUI983066 GEE983042:GEE983066 GOA983042:GOA983066 GXW983042:GXW983066 HHS983042:HHS983066 HRO983042:HRO983066 IBK983042:IBK983066 ILG983042:ILG983066 IVC983042:IVC983066 JEY983042:JEY983066 JOU983042:JOU983066 JYQ983042:JYQ983066 KIM983042:KIM983066 KSI983042:KSI983066 LCE983042:LCE983066 LMA983042:LMA983066 LVW983042:LVW983066 MFS983042:MFS983066 MPO983042:MPO983066 MZK983042:MZK983066 NJG983042:NJG983066 NTC983042:NTC983066 OCY983042:OCY983066 OMU983042:OMU983066 OWQ983042:OWQ983066 PGM983042:PGM983066 PQI983042:PQI983066 QAE983042:QAE983066 QKA983042:QKA983066 QTW983042:QTW983066 RDS983042:RDS983066 RNO983042:RNO983066 RXK983042:RXK983066 SHG983042:SHG983066 SRC983042:SRC983066 TAY983042:TAY983066 TKU983042:TKU983066 TUQ983042:TUQ983066 UEM983042:UEM983066 UOI983042:UOI983066 UYE983042:UYE983066 VIA983042:VIA983066 VRW983042:VRW983066 WBS983042:WBS983066 WLO983042:WLO983066 IY4:IY27 SU4:SU27 ACQ4:ACQ27 AMM4:AMM27 AWI4:AWI27 BGE4:BGE27 BQA4:BQA27 BZW4:BZW27 CJS4:CJS27 CTO4:CTO27 DDK4:DDK27 DNG4:DNG27 DXC4:DXC27 EGY4:EGY27 EQU4:EQU27 FAQ4:FAQ27 FKM4:FKM27 FUI4:FUI27 GEE4:GEE27 GOA4:GOA27 GXW4:GXW27 HHS4:HHS27 HRO4:HRO27 IBK4:IBK27 ILG4:ILG27 IVC4:IVC27 JEY4:JEY27 JOU4:JOU27 JYQ4:JYQ27 KIM4:KIM27 KSI4:KSI27 LCE4:LCE27 LMA4:LMA27 LVW4:LVW27 MFS4:MFS27 MPO4:MPO27 MZK4:MZK27 NJG4:NJG27 NTC4:NTC27 OCY4:OCY27 OMU4:OMU27 OWQ4:OWQ27 PGM4:PGM27 PQI4:PQI27 QAE4:QAE27 QKA4:QKA27 QTW4:QTW27 RDS4:RDS27 RNO4:RNO27 RXK4:RXK27 SHG4:SHG27 SRC4:SRC27 TAY4:TAY27 TKU4:TKU27 TUQ4:TUQ27 UEM4:UEM27 UOI4:UOI27 UYE4:UYE27 VIA4:VIA27 VRW4:VRW27 WBS4:WBS27 WLO4:WLO27 WVK4:WVK27 IY29:IY137 SU29:SU137 ACQ29:ACQ137 AMM29:AMM137 AWI29:AWI137 BGE29:BGE137 BQA29:BQA137 BZW29:BZW137 CJS29:CJS137 CTO29:CTO137 DDK29:DDK137 DNG29:DNG137 DXC29:DXC137 EGY29:EGY137 EQU29:EQU137 FAQ29:FAQ137 FKM29:FKM137 FUI29:FUI137 GEE29:GEE137 GOA29:GOA137 GXW29:GXW137 HHS29:HHS137 HRO29:HRO137 IBK29:IBK137 ILG29:ILG137 IVC29:IVC137 JEY29:JEY137 JOU29:JOU137 JYQ29:JYQ137 KIM29:KIM137 KSI29:KSI137 LCE29:LCE137 LMA29:LMA137 LVW29:LVW137 MFS29:MFS137 MPO29:MPO137 MZK29:MZK137 NJG29:NJG137 NTC29:NTC137 OCY29:OCY137 OMU29:OMU137 OWQ29:OWQ137 PGM29:PGM137 PQI29:PQI137 QAE29:QAE137 QKA29:QKA137 QTW29:QTW137 RDS29:RDS137 RNO29:RNO137 RXK29:RXK137 SHG29:SHG137 SRC29:SRC137 TAY29:TAY137 TKU29:TKU137 TUQ29:TUQ137 UEM29:UEM137 UOI29:UOI137 UYE29:UYE137 VIA29:VIA137 VRW29:VRW137 WBS29:WBS137 WLO29:WLO137 WVK29:WVK137 C4:C137" xr:uid="{EF2703BF-CA26-412D-B8A9-0262195D956D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C65563:C65672 IY65563:IY65672 SU65563:SU65672 ACQ65563:ACQ65672 AMM65563:AMM65672 AWI65563:AWI65672 BGE65563:BGE65672 BQA65563:BQA65672 BZW65563:BZW65672 CJS65563:CJS65672 CTO65563:CTO65672 DDK65563:DDK65672 DNG65563:DNG65672 DXC65563:DXC65672 EGY65563:EGY65672 EQU65563:EQU65672 FAQ65563:FAQ65672 FKM65563:FKM65672 FUI65563:FUI65672 GEE65563:GEE65672 GOA65563:GOA65672 GXW65563:GXW65672 HHS65563:HHS65672 HRO65563:HRO65672 IBK65563:IBK65672 ILG65563:ILG65672 IVC65563:IVC65672 JEY65563:JEY65672 JOU65563:JOU65672 JYQ65563:JYQ65672 KIM65563:KIM65672 KSI65563:KSI65672 LCE65563:LCE65672 LMA65563:LMA65672 LVW65563:LVW65672 MFS65563:MFS65672 MPO65563:MPO65672 MZK65563:MZK65672 NJG65563:NJG65672 NTC65563:NTC65672 OCY65563:OCY65672 OMU65563:OMU65672 OWQ65563:OWQ65672 PGM65563:PGM65672 PQI65563:PQI65672 QAE65563:QAE65672 QKA65563:QKA65672 QTW65563:QTW65672 RDS65563:RDS65672 RNO65563:RNO65672 RXK65563:RXK65672 SHG65563:SHG65672 SRC65563:SRC65672 TAY65563:TAY65672 TKU65563:TKU65672 TUQ65563:TUQ65672 UEM65563:UEM65672 UOI65563:UOI65672 UYE65563:UYE65672 VIA65563:VIA65672 VRW65563:VRW65672 WBS65563:WBS65672 WLO65563:WLO65672 WVK65563:WVK65672 C131099:C131208 IY131099:IY131208 SU131099:SU131208 ACQ131099:ACQ131208 AMM131099:AMM131208 AWI131099:AWI131208 BGE131099:BGE131208 BQA131099:BQA131208 BZW131099:BZW131208 CJS131099:CJS131208 CTO131099:CTO131208 DDK131099:DDK131208 DNG131099:DNG131208 DXC131099:DXC131208 EGY131099:EGY131208 EQU131099:EQU131208 FAQ131099:FAQ131208 FKM131099:FKM131208 FUI131099:FUI131208 GEE131099:GEE131208 GOA131099:GOA131208 GXW131099:GXW131208 HHS131099:HHS131208 HRO131099:HRO131208 IBK131099:IBK131208 ILG131099:ILG131208 IVC131099:IVC131208 JEY131099:JEY131208 JOU131099:JOU131208 JYQ131099:JYQ131208 KIM131099:KIM131208 KSI131099:KSI131208 LCE131099:LCE131208 LMA131099:LMA131208 LVW131099:LVW131208 MFS131099:MFS131208 MPO131099:MPO131208 MZK131099:MZK131208 NJG131099:NJG131208 NTC131099:NTC131208 OCY131099:OCY131208 OMU131099:OMU131208 OWQ131099:OWQ131208 PGM131099:PGM131208 PQI131099:PQI131208 QAE131099:QAE131208 QKA131099:QKA131208 QTW131099:QTW131208 RDS131099:RDS131208 RNO131099:RNO131208 RXK131099:RXK131208 SHG131099:SHG131208 SRC131099:SRC131208 TAY131099:TAY131208 TKU131099:TKU131208 TUQ131099:TUQ131208 UEM131099:UEM131208 UOI131099:UOI131208 UYE131099:UYE131208 VIA131099:VIA131208 VRW131099:VRW131208 WBS131099:WBS131208 WLO131099:WLO131208 WVK131099:WVK131208 C196635:C196744 IY196635:IY196744 SU196635:SU196744 ACQ196635:ACQ196744 AMM196635:AMM196744 AWI196635:AWI196744 BGE196635:BGE196744 BQA196635:BQA196744 BZW196635:BZW196744 CJS196635:CJS196744 CTO196635:CTO196744 DDK196635:DDK196744 DNG196635:DNG196744 DXC196635:DXC196744 EGY196635:EGY196744 EQU196635:EQU196744 FAQ196635:FAQ196744 FKM196635:FKM196744 FUI196635:FUI196744 GEE196635:GEE196744 GOA196635:GOA196744 GXW196635:GXW196744 HHS196635:HHS196744 HRO196635:HRO196744 IBK196635:IBK196744 ILG196635:ILG196744 IVC196635:IVC196744 JEY196635:JEY196744 JOU196635:JOU196744 JYQ196635:JYQ196744 KIM196635:KIM196744 KSI196635:KSI196744 LCE196635:LCE196744 LMA196635:LMA196744 LVW196635:LVW196744 MFS196635:MFS196744 MPO196635:MPO196744 MZK196635:MZK196744 NJG196635:NJG196744 NTC196635:NTC196744 OCY196635:OCY196744 OMU196635:OMU196744 OWQ196635:OWQ196744 PGM196635:PGM196744 PQI196635:PQI196744 QAE196635:QAE196744 QKA196635:QKA196744 QTW196635:QTW196744 RDS196635:RDS196744 RNO196635:RNO196744 RXK196635:RXK196744 SHG196635:SHG196744 SRC196635:SRC196744 TAY196635:TAY196744 TKU196635:TKU196744 TUQ196635:TUQ196744 UEM196635:UEM196744 UOI196635:UOI196744 UYE196635:UYE196744 VIA196635:VIA196744 VRW196635:VRW196744 WBS196635:WBS196744 WLO196635:WLO196744 WVK196635:WVK196744 C262171:C262280 IY262171:IY262280 SU262171:SU262280 ACQ262171:ACQ262280 AMM262171:AMM262280 AWI262171:AWI262280 BGE262171:BGE262280 BQA262171:BQA262280 BZW262171:BZW262280 CJS262171:CJS262280 CTO262171:CTO262280 DDK262171:DDK262280 DNG262171:DNG262280 DXC262171:DXC262280 EGY262171:EGY262280 EQU262171:EQU262280 FAQ262171:FAQ262280 FKM262171:FKM262280 FUI262171:FUI262280 GEE262171:GEE262280 GOA262171:GOA262280 GXW262171:GXW262280 HHS262171:HHS262280 HRO262171:HRO262280 IBK262171:IBK262280 ILG262171:ILG262280 IVC262171:IVC262280 JEY262171:JEY262280 JOU262171:JOU262280 JYQ262171:JYQ262280 KIM262171:KIM262280 KSI262171:KSI262280 LCE262171:LCE262280 LMA262171:LMA262280 LVW262171:LVW262280 MFS262171:MFS262280 MPO262171:MPO262280 MZK262171:MZK262280 NJG262171:NJG262280 NTC262171:NTC262280 OCY262171:OCY262280 OMU262171:OMU262280 OWQ262171:OWQ262280 PGM262171:PGM262280 PQI262171:PQI262280 QAE262171:QAE262280 QKA262171:QKA262280 QTW262171:QTW262280 RDS262171:RDS262280 RNO262171:RNO262280 RXK262171:RXK262280 SHG262171:SHG262280 SRC262171:SRC262280 TAY262171:TAY262280 TKU262171:TKU262280 TUQ262171:TUQ262280 UEM262171:UEM262280 UOI262171:UOI262280 UYE262171:UYE262280 VIA262171:VIA262280 VRW262171:VRW262280 WBS262171:WBS262280 WLO262171:WLO262280 WVK262171:WVK262280 C327707:C327816 IY327707:IY327816 SU327707:SU327816 ACQ327707:ACQ327816 AMM327707:AMM327816 AWI327707:AWI327816 BGE327707:BGE327816 BQA327707:BQA327816 BZW327707:BZW327816 CJS327707:CJS327816 CTO327707:CTO327816 DDK327707:DDK327816 DNG327707:DNG327816 DXC327707:DXC327816 EGY327707:EGY327816 EQU327707:EQU327816 FAQ327707:FAQ327816 FKM327707:FKM327816 FUI327707:FUI327816 GEE327707:GEE327816 GOA327707:GOA327816 GXW327707:GXW327816 HHS327707:HHS327816 HRO327707:HRO327816 IBK327707:IBK327816 ILG327707:ILG327816 IVC327707:IVC327816 JEY327707:JEY327816 JOU327707:JOU327816 JYQ327707:JYQ327816 KIM327707:KIM327816 KSI327707:KSI327816 LCE327707:LCE327816 LMA327707:LMA327816 LVW327707:LVW327816 MFS327707:MFS327816 MPO327707:MPO327816 MZK327707:MZK327816 NJG327707:NJG327816 NTC327707:NTC327816 OCY327707:OCY327816 OMU327707:OMU327816 OWQ327707:OWQ327816 PGM327707:PGM327816 PQI327707:PQI327816 QAE327707:QAE327816 QKA327707:QKA327816 QTW327707:QTW327816 RDS327707:RDS327816 RNO327707:RNO327816 RXK327707:RXK327816 SHG327707:SHG327816 SRC327707:SRC327816 TAY327707:TAY327816 TKU327707:TKU327816 TUQ327707:TUQ327816 UEM327707:UEM327816 UOI327707:UOI327816 UYE327707:UYE327816 VIA327707:VIA327816 VRW327707:VRW327816 WBS327707:WBS327816 WLO327707:WLO327816 WVK327707:WVK327816 C393243:C393352 IY393243:IY393352 SU393243:SU393352 ACQ393243:ACQ393352 AMM393243:AMM393352 AWI393243:AWI393352 BGE393243:BGE393352 BQA393243:BQA393352 BZW393243:BZW393352 CJS393243:CJS393352 CTO393243:CTO393352 DDK393243:DDK393352 DNG393243:DNG393352 DXC393243:DXC393352 EGY393243:EGY393352 EQU393243:EQU393352 FAQ393243:FAQ393352 FKM393243:FKM393352 FUI393243:FUI393352 GEE393243:GEE393352 GOA393243:GOA393352 GXW393243:GXW393352 HHS393243:HHS393352 HRO393243:HRO393352 IBK393243:IBK393352 ILG393243:ILG393352 IVC393243:IVC393352 JEY393243:JEY393352 JOU393243:JOU393352 JYQ393243:JYQ393352 KIM393243:KIM393352 KSI393243:KSI393352 LCE393243:LCE393352 LMA393243:LMA393352 LVW393243:LVW393352 MFS393243:MFS393352 MPO393243:MPO393352 MZK393243:MZK393352 NJG393243:NJG393352 NTC393243:NTC393352 OCY393243:OCY393352 OMU393243:OMU393352 OWQ393243:OWQ393352 PGM393243:PGM393352 PQI393243:PQI393352 QAE393243:QAE393352 QKA393243:QKA393352 QTW393243:QTW393352 RDS393243:RDS393352 RNO393243:RNO393352 RXK393243:RXK393352 SHG393243:SHG393352 SRC393243:SRC393352 TAY393243:TAY393352 TKU393243:TKU393352 TUQ393243:TUQ393352 UEM393243:UEM393352 UOI393243:UOI393352 UYE393243:UYE393352 VIA393243:VIA393352 VRW393243:VRW393352 WBS393243:WBS393352 WLO393243:WLO393352 WVK393243:WVK393352 C458779:C458888 IY458779:IY458888 SU458779:SU458888 ACQ458779:ACQ458888 AMM458779:AMM458888 AWI458779:AWI458888 BGE458779:BGE458888 BQA458779:BQA458888 BZW458779:BZW458888 CJS458779:CJS458888 CTO458779:CTO458888 DDK458779:DDK458888 DNG458779:DNG458888 DXC458779:DXC458888 EGY458779:EGY458888 EQU458779:EQU458888 FAQ458779:FAQ458888 FKM458779:FKM458888 FUI458779:FUI458888 GEE458779:GEE458888 GOA458779:GOA458888 GXW458779:GXW458888 HHS458779:HHS458888 HRO458779:HRO458888 IBK458779:IBK458888 ILG458779:ILG458888 IVC458779:IVC458888 JEY458779:JEY458888 JOU458779:JOU458888 JYQ458779:JYQ458888 KIM458779:KIM458888 KSI458779:KSI458888 LCE458779:LCE458888 LMA458779:LMA458888 LVW458779:LVW458888 MFS458779:MFS458888 MPO458779:MPO458888 MZK458779:MZK458888 NJG458779:NJG458888 NTC458779:NTC458888 OCY458779:OCY458888 OMU458779:OMU458888 OWQ458779:OWQ458888 PGM458779:PGM458888 PQI458779:PQI458888 QAE458779:QAE458888 QKA458779:QKA458888 QTW458779:QTW458888 RDS458779:RDS458888 RNO458779:RNO458888 RXK458779:RXK458888 SHG458779:SHG458888 SRC458779:SRC458888 TAY458779:TAY458888 TKU458779:TKU458888 TUQ458779:TUQ458888 UEM458779:UEM458888 UOI458779:UOI458888 UYE458779:UYE458888 VIA458779:VIA458888 VRW458779:VRW458888 WBS458779:WBS458888 WLO458779:WLO458888 WVK458779:WVK458888 C524315:C524424 IY524315:IY524424 SU524315:SU524424 ACQ524315:ACQ524424 AMM524315:AMM524424 AWI524315:AWI524424 BGE524315:BGE524424 BQA524315:BQA524424 BZW524315:BZW524424 CJS524315:CJS524424 CTO524315:CTO524424 DDK524315:DDK524424 DNG524315:DNG524424 DXC524315:DXC524424 EGY524315:EGY524424 EQU524315:EQU524424 FAQ524315:FAQ524424 FKM524315:FKM524424 FUI524315:FUI524424 GEE524315:GEE524424 GOA524315:GOA524424 GXW524315:GXW524424 HHS524315:HHS524424 HRO524315:HRO524424 IBK524315:IBK524424 ILG524315:ILG524424 IVC524315:IVC524424 JEY524315:JEY524424 JOU524315:JOU524424 JYQ524315:JYQ524424 KIM524315:KIM524424 KSI524315:KSI524424 LCE524315:LCE524424 LMA524315:LMA524424 LVW524315:LVW524424 MFS524315:MFS524424 MPO524315:MPO524424 MZK524315:MZK524424 NJG524315:NJG524424 NTC524315:NTC524424 OCY524315:OCY524424 OMU524315:OMU524424 OWQ524315:OWQ524424 PGM524315:PGM524424 PQI524315:PQI524424 QAE524315:QAE524424 QKA524315:QKA524424 QTW524315:QTW524424 RDS524315:RDS524424 RNO524315:RNO524424 RXK524315:RXK524424 SHG524315:SHG524424 SRC524315:SRC524424 TAY524315:TAY524424 TKU524315:TKU524424 TUQ524315:TUQ524424 UEM524315:UEM524424 UOI524315:UOI524424 UYE524315:UYE524424 VIA524315:VIA524424 VRW524315:VRW524424 WBS524315:WBS524424 WLO524315:WLO524424 WVK524315:WVK524424 C589851:C589960 IY589851:IY589960 SU589851:SU589960 ACQ589851:ACQ589960 AMM589851:AMM589960 AWI589851:AWI589960 BGE589851:BGE589960 BQA589851:BQA589960 BZW589851:BZW589960 CJS589851:CJS589960 CTO589851:CTO589960 DDK589851:DDK589960 DNG589851:DNG589960 DXC589851:DXC589960 EGY589851:EGY589960 EQU589851:EQU589960 FAQ589851:FAQ589960 FKM589851:FKM589960 FUI589851:FUI589960 GEE589851:GEE589960 GOA589851:GOA589960 GXW589851:GXW589960 HHS589851:HHS589960 HRO589851:HRO589960 IBK589851:IBK589960 ILG589851:ILG589960 IVC589851:IVC589960 JEY589851:JEY589960 JOU589851:JOU589960 JYQ589851:JYQ589960 KIM589851:KIM589960 KSI589851:KSI589960 LCE589851:LCE589960 LMA589851:LMA589960 LVW589851:LVW589960 MFS589851:MFS589960 MPO589851:MPO589960 MZK589851:MZK589960 NJG589851:NJG589960 NTC589851:NTC589960 OCY589851:OCY589960 OMU589851:OMU589960 OWQ589851:OWQ589960 PGM589851:PGM589960 PQI589851:PQI589960 QAE589851:QAE589960 QKA589851:QKA589960 QTW589851:QTW589960 RDS589851:RDS589960 RNO589851:RNO589960 RXK589851:RXK589960 SHG589851:SHG589960 SRC589851:SRC589960 TAY589851:TAY589960 TKU589851:TKU589960 TUQ589851:TUQ589960 UEM589851:UEM589960 UOI589851:UOI589960 UYE589851:UYE589960 VIA589851:VIA589960 VRW589851:VRW589960 WBS589851:WBS589960 WLO589851:WLO589960 WVK589851:WVK589960 C655387:C655496 IY655387:IY655496 SU655387:SU655496 ACQ655387:ACQ655496 AMM655387:AMM655496 AWI655387:AWI655496 BGE655387:BGE655496 BQA655387:BQA655496 BZW655387:BZW655496 CJS655387:CJS655496 CTO655387:CTO655496 DDK655387:DDK655496 DNG655387:DNG655496 DXC655387:DXC655496 EGY655387:EGY655496 EQU655387:EQU655496 FAQ655387:FAQ655496 FKM655387:FKM655496 FUI655387:FUI655496 GEE655387:GEE655496 GOA655387:GOA655496 GXW655387:GXW655496 HHS655387:HHS655496 HRO655387:HRO655496 IBK655387:IBK655496 ILG655387:ILG655496 IVC655387:IVC655496 JEY655387:JEY655496 JOU655387:JOU655496 JYQ655387:JYQ655496 KIM655387:KIM655496 KSI655387:KSI655496 LCE655387:LCE655496 LMA655387:LMA655496 LVW655387:LVW655496 MFS655387:MFS655496 MPO655387:MPO655496 MZK655387:MZK655496 NJG655387:NJG655496 NTC655387:NTC655496 OCY655387:OCY655496 OMU655387:OMU655496 OWQ655387:OWQ655496 PGM655387:PGM655496 PQI655387:PQI655496 QAE655387:QAE655496 QKA655387:QKA655496 QTW655387:QTW655496 RDS655387:RDS655496 RNO655387:RNO655496 RXK655387:RXK655496 SHG655387:SHG655496 SRC655387:SRC655496 TAY655387:TAY655496 TKU655387:TKU655496 TUQ655387:TUQ655496 UEM655387:UEM655496 UOI655387:UOI655496 UYE655387:UYE655496 VIA655387:VIA655496 VRW655387:VRW655496 WBS655387:WBS655496 WLO655387:WLO655496 WVK655387:WVK655496 C720923:C721032 IY720923:IY721032 SU720923:SU721032 ACQ720923:ACQ721032 AMM720923:AMM721032 AWI720923:AWI721032 BGE720923:BGE721032 BQA720923:BQA721032 BZW720923:BZW721032 CJS720923:CJS721032 CTO720923:CTO721032 DDK720923:DDK721032 DNG720923:DNG721032 DXC720923:DXC721032 EGY720923:EGY721032 EQU720923:EQU721032 FAQ720923:FAQ721032 FKM720923:FKM721032 FUI720923:FUI721032 GEE720923:GEE721032 GOA720923:GOA721032 GXW720923:GXW721032 HHS720923:HHS721032 HRO720923:HRO721032 IBK720923:IBK721032 ILG720923:ILG721032 IVC720923:IVC721032 JEY720923:JEY721032 JOU720923:JOU721032 JYQ720923:JYQ721032 KIM720923:KIM721032 KSI720923:KSI721032 LCE720923:LCE721032 LMA720923:LMA721032 LVW720923:LVW721032 MFS720923:MFS721032 MPO720923:MPO721032 MZK720923:MZK721032 NJG720923:NJG721032 NTC720923:NTC721032 OCY720923:OCY721032 OMU720923:OMU721032 OWQ720923:OWQ721032 PGM720923:PGM721032 PQI720923:PQI721032 QAE720923:QAE721032 QKA720923:QKA721032 QTW720923:QTW721032 RDS720923:RDS721032 RNO720923:RNO721032 RXK720923:RXK721032 SHG720923:SHG721032 SRC720923:SRC721032 TAY720923:TAY721032 TKU720923:TKU721032 TUQ720923:TUQ721032 UEM720923:UEM721032 UOI720923:UOI721032 UYE720923:UYE721032 VIA720923:VIA721032 VRW720923:VRW721032 WBS720923:WBS721032 WLO720923:WLO721032 WVK720923:WVK721032 C786459:C786568 IY786459:IY786568 SU786459:SU786568 ACQ786459:ACQ786568 AMM786459:AMM786568 AWI786459:AWI786568 BGE786459:BGE786568 BQA786459:BQA786568 BZW786459:BZW786568 CJS786459:CJS786568 CTO786459:CTO786568 DDK786459:DDK786568 DNG786459:DNG786568 DXC786459:DXC786568 EGY786459:EGY786568 EQU786459:EQU786568 FAQ786459:FAQ786568 FKM786459:FKM786568 FUI786459:FUI786568 GEE786459:GEE786568 GOA786459:GOA786568 GXW786459:GXW786568 HHS786459:HHS786568 HRO786459:HRO786568 IBK786459:IBK786568 ILG786459:ILG786568 IVC786459:IVC786568 JEY786459:JEY786568 JOU786459:JOU786568 JYQ786459:JYQ786568 KIM786459:KIM786568 KSI786459:KSI786568 LCE786459:LCE786568 LMA786459:LMA786568 LVW786459:LVW786568 MFS786459:MFS786568 MPO786459:MPO786568 MZK786459:MZK786568 NJG786459:NJG786568 NTC786459:NTC786568 OCY786459:OCY786568 OMU786459:OMU786568 OWQ786459:OWQ786568 PGM786459:PGM786568 PQI786459:PQI786568 QAE786459:QAE786568 QKA786459:QKA786568 QTW786459:QTW786568 RDS786459:RDS786568 RNO786459:RNO786568 RXK786459:RXK786568 SHG786459:SHG786568 SRC786459:SRC786568 TAY786459:TAY786568 TKU786459:TKU786568 TUQ786459:TUQ786568 UEM786459:UEM786568 UOI786459:UOI786568 UYE786459:UYE786568 VIA786459:VIA786568 VRW786459:VRW786568 WBS786459:WBS786568 WLO786459:WLO786568 WVK786459:WVK786568 C851995:C852104 IY851995:IY852104 SU851995:SU852104 ACQ851995:ACQ852104 AMM851995:AMM852104 AWI851995:AWI852104 BGE851995:BGE852104 BQA851995:BQA852104 BZW851995:BZW852104 CJS851995:CJS852104 CTO851995:CTO852104 DDK851995:DDK852104 DNG851995:DNG852104 DXC851995:DXC852104 EGY851995:EGY852104 EQU851995:EQU852104 FAQ851995:FAQ852104 FKM851995:FKM852104 FUI851995:FUI852104 GEE851995:GEE852104 GOA851995:GOA852104 GXW851995:GXW852104 HHS851995:HHS852104 HRO851995:HRO852104 IBK851995:IBK852104 ILG851995:ILG852104 IVC851995:IVC852104 JEY851995:JEY852104 JOU851995:JOU852104 JYQ851995:JYQ852104 KIM851995:KIM852104 KSI851995:KSI852104 LCE851995:LCE852104 LMA851995:LMA852104 LVW851995:LVW852104 MFS851995:MFS852104 MPO851995:MPO852104 MZK851995:MZK852104 NJG851995:NJG852104 NTC851995:NTC852104 OCY851995:OCY852104 OMU851995:OMU852104 OWQ851995:OWQ852104 PGM851995:PGM852104 PQI851995:PQI852104 QAE851995:QAE852104 QKA851995:QKA852104 QTW851995:QTW852104 RDS851995:RDS852104 RNO851995:RNO852104 RXK851995:RXK852104 SHG851995:SHG852104 SRC851995:SRC852104 TAY851995:TAY852104 TKU851995:TKU852104 TUQ851995:TUQ852104 UEM851995:UEM852104 UOI851995:UOI852104 UYE851995:UYE852104 VIA851995:VIA852104 VRW851995:VRW852104 WBS851995:WBS852104 WLO851995:WLO852104 WVK851995:WVK852104 C917531:C917640 IY917531:IY917640 SU917531:SU917640 ACQ917531:ACQ917640 AMM917531:AMM917640 AWI917531:AWI917640 BGE917531:BGE917640 BQA917531:BQA917640 BZW917531:BZW917640 CJS917531:CJS917640 CTO917531:CTO917640 DDK917531:DDK917640 DNG917531:DNG917640 DXC917531:DXC917640 EGY917531:EGY917640 EQU917531:EQU917640 FAQ917531:FAQ917640 FKM917531:FKM917640 FUI917531:FUI917640 GEE917531:GEE917640 GOA917531:GOA917640 GXW917531:GXW917640 HHS917531:HHS917640 HRO917531:HRO917640 IBK917531:IBK917640 ILG917531:ILG917640 IVC917531:IVC917640 JEY917531:JEY917640 JOU917531:JOU917640 JYQ917531:JYQ917640 KIM917531:KIM917640 KSI917531:KSI917640 LCE917531:LCE917640 LMA917531:LMA917640 LVW917531:LVW917640 MFS917531:MFS917640 MPO917531:MPO917640 MZK917531:MZK917640 NJG917531:NJG917640 NTC917531:NTC917640 OCY917531:OCY917640 OMU917531:OMU917640 OWQ917531:OWQ917640 PGM917531:PGM917640 PQI917531:PQI917640 QAE917531:QAE917640 QKA917531:QKA917640 QTW917531:QTW917640 RDS917531:RDS917640 RNO917531:RNO917640 RXK917531:RXK917640 SHG917531:SHG917640 SRC917531:SRC917640 TAY917531:TAY917640 TKU917531:TKU917640 TUQ917531:TUQ917640 UEM917531:UEM917640 UOI917531:UOI917640 UYE917531:UYE917640 VIA917531:VIA917640 VRW917531:VRW917640 WBS917531:WBS917640 WLO917531:WLO917640 WVK917531:WVK917640 C983067:C983176 IY983067:IY983176 SU983067:SU983176 ACQ983067:ACQ983176 AMM983067:AMM983176 AWI983067:AWI983176 BGE983067:BGE983176 BQA983067:BQA983176 BZW983067:BZW983176 CJS983067:CJS983176 CTO983067:CTO983176 DDK983067:DDK983176 DNG983067:DNG983176 DXC983067:DXC983176 EGY983067:EGY983176 EQU983067:EQU983176 FAQ983067:FAQ983176 FKM983067:FKM983176 FUI983067:FUI983176 GEE983067:GEE983176 GOA983067:GOA983176 GXW983067:GXW983176 HHS983067:HHS983176 HRO983067:HRO983176 IBK983067:IBK983176 ILG983067:ILG983176 IVC983067:IVC983176 JEY983067:JEY983176 JOU983067:JOU983176 JYQ983067:JYQ983176 KIM983067:KIM983176 KSI983067:KSI983176 LCE983067:LCE983176 LMA983067:LMA983176 LVW983067:LVW983176 MFS983067:MFS983176 MPO983067:MPO983176 MZK983067:MZK983176 NJG983067:NJG983176 NTC983067:NTC983176 OCY983067:OCY983176 OMU983067:OMU983176 OWQ983067:OWQ983176 PGM983067:PGM983176 PQI983067:PQI983176 QAE983067:QAE983176 QKA983067:QKA983176 QTW983067:QTW983176 RDS983067:RDS983176 RNO983067:RNO983176 RXK983067:RXK983176 SHG983067:SHG983176 SRC983067:SRC983176 TAY983067:TAY983176 TKU983067:TKU983176 TUQ983067:TUQ983176 UEM983067:UEM983176 UOI983067:UOI983176 UYE983067:UYE983176 VIA983067:VIA983176 VRW983067:VRW983176 WBS983067:WBS983176 WLO983067:WLO983176 WVK983067:WVK983176 WVK983041:WVK983065 C65537:C65561 IY65537:IY65561 SU65537:SU65561 ACQ65537:ACQ65561 AMM65537:AMM65561 AWI65537:AWI65561 BGE65537:BGE65561 BQA65537:BQA65561 BZW65537:BZW65561 CJS65537:CJS65561 CTO65537:CTO65561 DDK65537:DDK65561 DNG65537:DNG65561 DXC65537:DXC65561 EGY65537:EGY65561 EQU65537:EQU65561 FAQ65537:FAQ65561 FKM65537:FKM65561 FUI65537:FUI65561 GEE65537:GEE65561 GOA65537:GOA65561 GXW65537:GXW65561 HHS65537:HHS65561 HRO65537:HRO65561 IBK65537:IBK65561 ILG65537:ILG65561 IVC65537:IVC65561 JEY65537:JEY65561 JOU65537:JOU65561 JYQ65537:JYQ65561 KIM65537:KIM65561 KSI65537:KSI65561 LCE65537:LCE65561 LMA65537:LMA65561 LVW65537:LVW65561 MFS65537:MFS65561 MPO65537:MPO65561 MZK65537:MZK65561 NJG65537:NJG65561 NTC65537:NTC65561 OCY65537:OCY65561 OMU65537:OMU65561 OWQ65537:OWQ65561 PGM65537:PGM65561 PQI65537:PQI65561 QAE65537:QAE65561 QKA65537:QKA65561 QTW65537:QTW65561 RDS65537:RDS65561 RNO65537:RNO65561 RXK65537:RXK65561 SHG65537:SHG65561 SRC65537:SRC65561 TAY65537:TAY65561 TKU65537:TKU65561 TUQ65537:TUQ65561 UEM65537:UEM65561 UOI65537:UOI65561 UYE65537:UYE65561 VIA65537:VIA65561 VRW65537:VRW65561 WBS65537:WBS65561 WLO65537:WLO65561 WVK65537:WVK65561 C131073:C131097 IY131073:IY131097 SU131073:SU131097 ACQ131073:ACQ131097 AMM131073:AMM131097 AWI131073:AWI131097 BGE131073:BGE131097 BQA131073:BQA131097 BZW131073:BZW131097 CJS131073:CJS131097 CTO131073:CTO131097 DDK131073:DDK131097 DNG131073:DNG131097 DXC131073:DXC131097 EGY131073:EGY131097 EQU131073:EQU131097 FAQ131073:FAQ131097 FKM131073:FKM131097 FUI131073:FUI131097 GEE131073:GEE131097 GOA131073:GOA131097 GXW131073:GXW131097 HHS131073:HHS131097 HRO131073:HRO131097 IBK131073:IBK131097 ILG131073:ILG131097 IVC131073:IVC131097 JEY131073:JEY131097 JOU131073:JOU131097 JYQ131073:JYQ131097 KIM131073:KIM131097 KSI131073:KSI131097 LCE131073:LCE131097 LMA131073:LMA131097 LVW131073:LVW131097 MFS131073:MFS131097 MPO131073:MPO131097 MZK131073:MZK131097 NJG131073:NJG131097 NTC131073:NTC131097 OCY131073:OCY131097 OMU131073:OMU131097 OWQ131073:OWQ131097 PGM131073:PGM131097 PQI131073:PQI131097 QAE131073:QAE131097 QKA131073:QKA131097 QTW131073:QTW131097 RDS131073:RDS131097 RNO131073:RNO131097 RXK131073:RXK131097 SHG131073:SHG131097 SRC131073:SRC131097 TAY131073:TAY131097 TKU131073:TKU131097 TUQ131073:TUQ131097 UEM131073:UEM131097 UOI131073:UOI131097 UYE131073:UYE131097 VIA131073:VIA131097 VRW131073:VRW131097 WBS131073:WBS131097 WLO131073:WLO131097 WVK131073:WVK131097 C196609:C196633 IY196609:IY196633 SU196609:SU196633 ACQ196609:ACQ196633 AMM196609:AMM196633 AWI196609:AWI196633 BGE196609:BGE196633 BQA196609:BQA196633 BZW196609:BZW196633 CJS196609:CJS196633 CTO196609:CTO196633 DDK196609:DDK196633 DNG196609:DNG196633 DXC196609:DXC196633 EGY196609:EGY196633 EQU196609:EQU196633 FAQ196609:FAQ196633 FKM196609:FKM196633 FUI196609:FUI196633 GEE196609:GEE196633 GOA196609:GOA196633 GXW196609:GXW196633 HHS196609:HHS196633 HRO196609:HRO196633 IBK196609:IBK196633 ILG196609:ILG196633 IVC196609:IVC196633 JEY196609:JEY196633 JOU196609:JOU196633 JYQ196609:JYQ196633 KIM196609:KIM196633 KSI196609:KSI196633 LCE196609:LCE196633 LMA196609:LMA196633 LVW196609:LVW196633 MFS196609:MFS196633 MPO196609:MPO196633 MZK196609:MZK196633 NJG196609:NJG196633 NTC196609:NTC196633 OCY196609:OCY196633 OMU196609:OMU196633 OWQ196609:OWQ196633 PGM196609:PGM196633 PQI196609:PQI196633 QAE196609:QAE196633 QKA196609:QKA196633 QTW196609:QTW196633 RDS196609:RDS196633 RNO196609:RNO196633 RXK196609:RXK196633 SHG196609:SHG196633 SRC196609:SRC196633 TAY196609:TAY196633 TKU196609:TKU196633 TUQ196609:TUQ196633 UEM196609:UEM196633 UOI196609:UOI196633 UYE196609:UYE196633 VIA196609:VIA196633 VRW196609:VRW196633 WBS196609:WBS196633 WLO196609:WLO196633 WVK196609:WVK196633 C262145:C262169 IY262145:IY262169 SU262145:SU262169 ACQ262145:ACQ262169 AMM262145:AMM262169 AWI262145:AWI262169 BGE262145:BGE262169 BQA262145:BQA262169 BZW262145:BZW262169 CJS262145:CJS262169 CTO262145:CTO262169 DDK262145:DDK262169 DNG262145:DNG262169 DXC262145:DXC262169 EGY262145:EGY262169 EQU262145:EQU262169 FAQ262145:FAQ262169 FKM262145:FKM262169 FUI262145:FUI262169 GEE262145:GEE262169 GOA262145:GOA262169 GXW262145:GXW262169 HHS262145:HHS262169 HRO262145:HRO262169 IBK262145:IBK262169 ILG262145:ILG262169 IVC262145:IVC262169 JEY262145:JEY262169 JOU262145:JOU262169 JYQ262145:JYQ262169 KIM262145:KIM262169 KSI262145:KSI262169 LCE262145:LCE262169 LMA262145:LMA262169 LVW262145:LVW262169 MFS262145:MFS262169 MPO262145:MPO262169 MZK262145:MZK262169 NJG262145:NJG262169 NTC262145:NTC262169 OCY262145:OCY262169 OMU262145:OMU262169 OWQ262145:OWQ262169 PGM262145:PGM262169 PQI262145:PQI262169 QAE262145:QAE262169 QKA262145:QKA262169 QTW262145:QTW262169 RDS262145:RDS262169 RNO262145:RNO262169 RXK262145:RXK262169 SHG262145:SHG262169 SRC262145:SRC262169 TAY262145:TAY262169 TKU262145:TKU262169 TUQ262145:TUQ262169 UEM262145:UEM262169 UOI262145:UOI262169 UYE262145:UYE262169 VIA262145:VIA262169 VRW262145:VRW262169 WBS262145:WBS262169 WLO262145:WLO262169 WVK262145:WVK262169 C327681:C327705 IY327681:IY327705 SU327681:SU327705 ACQ327681:ACQ327705 AMM327681:AMM327705 AWI327681:AWI327705 BGE327681:BGE327705 BQA327681:BQA327705 BZW327681:BZW327705 CJS327681:CJS327705 CTO327681:CTO327705 DDK327681:DDK327705 DNG327681:DNG327705 DXC327681:DXC327705 EGY327681:EGY327705 EQU327681:EQU327705 FAQ327681:FAQ327705 FKM327681:FKM327705 FUI327681:FUI327705 GEE327681:GEE327705 GOA327681:GOA327705 GXW327681:GXW327705 HHS327681:HHS327705 HRO327681:HRO327705 IBK327681:IBK327705 ILG327681:ILG327705 IVC327681:IVC327705 JEY327681:JEY327705 JOU327681:JOU327705 JYQ327681:JYQ327705 KIM327681:KIM327705 KSI327681:KSI327705 LCE327681:LCE327705 LMA327681:LMA327705 LVW327681:LVW327705 MFS327681:MFS327705 MPO327681:MPO327705 MZK327681:MZK327705 NJG327681:NJG327705 NTC327681:NTC327705 OCY327681:OCY327705 OMU327681:OMU327705 OWQ327681:OWQ327705 PGM327681:PGM327705 PQI327681:PQI327705 QAE327681:QAE327705 QKA327681:QKA327705 QTW327681:QTW327705 RDS327681:RDS327705 RNO327681:RNO327705 RXK327681:RXK327705 SHG327681:SHG327705 SRC327681:SRC327705 TAY327681:TAY327705 TKU327681:TKU327705 TUQ327681:TUQ327705 UEM327681:UEM327705 UOI327681:UOI327705 UYE327681:UYE327705 VIA327681:VIA327705 VRW327681:VRW327705 WBS327681:WBS327705 WLO327681:WLO327705 WVK327681:WVK327705 C393217:C393241 IY393217:IY393241 SU393217:SU393241 ACQ393217:ACQ393241 AMM393217:AMM393241 AWI393217:AWI393241 BGE393217:BGE393241 BQA393217:BQA393241 BZW393217:BZW393241 CJS393217:CJS393241 CTO393217:CTO393241 DDK393217:DDK393241 DNG393217:DNG393241 DXC393217:DXC393241 EGY393217:EGY393241 EQU393217:EQU393241 FAQ393217:FAQ393241 FKM393217:FKM393241 FUI393217:FUI393241 GEE393217:GEE393241 GOA393217:GOA393241 GXW393217:GXW393241 HHS393217:HHS393241 HRO393217:HRO393241 IBK393217:IBK393241 ILG393217:ILG393241 IVC393217:IVC393241 JEY393217:JEY393241 JOU393217:JOU393241 JYQ393217:JYQ393241 KIM393217:KIM393241 KSI393217:KSI393241 LCE393217:LCE393241 LMA393217:LMA393241 LVW393217:LVW393241 MFS393217:MFS393241 MPO393217:MPO393241 MZK393217:MZK393241 NJG393217:NJG393241 NTC393217:NTC393241 OCY393217:OCY393241 OMU393217:OMU393241 OWQ393217:OWQ393241 PGM393217:PGM393241 PQI393217:PQI393241 QAE393217:QAE393241 QKA393217:QKA393241 QTW393217:QTW393241 RDS393217:RDS393241 RNO393217:RNO393241 RXK393217:RXK393241 SHG393217:SHG393241 SRC393217:SRC393241 TAY393217:TAY393241 TKU393217:TKU393241 TUQ393217:TUQ393241 UEM393217:UEM393241 UOI393217:UOI393241 UYE393217:UYE393241 VIA393217:VIA393241 VRW393217:VRW393241 WBS393217:WBS393241 WLO393217:WLO393241 WVK393217:WVK393241 C458753:C458777 IY458753:IY458777 SU458753:SU458777 ACQ458753:ACQ458777 AMM458753:AMM458777 AWI458753:AWI458777 BGE458753:BGE458777 BQA458753:BQA458777 BZW458753:BZW458777 CJS458753:CJS458777 CTO458753:CTO458777 DDK458753:DDK458777 DNG458753:DNG458777 DXC458753:DXC458777 EGY458753:EGY458777 EQU458753:EQU458777 FAQ458753:FAQ458777 FKM458753:FKM458777 FUI458753:FUI458777 GEE458753:GEE458777 GOA458753:GOA458777 GXW458753:GXW458777 HHS458753:HHS458777 HRO458753:HRO458777 IBK458753:IBK458777 ILG458753:ILG458777 IVC458753:IVC458777 JEY458753:JEY458777 JOU458753:JOU458777 JYQ458753:JYQ458777 KIM458753:KIM458777 KSI458753:KSI458777 LCE458753:LCE458777 LMA458753:LMA458777 LVW458753:LVW458777 MFS458753:MFS458777 MPO458753:MPO458777 MZK458753:MZK458777 NJG458753:NJG458777 NTC458753:NTC458777 OCY458753:OCY458777 OMU458753:OMU458777 OWQ458753:OWQ458777 PGM458753:PGM458777 PQI458753:PQI458777 QAE458753:QAE458777 QKA458753:QKA458777 QTW458753:QTW458777 RDS458753:RDS458777 RNO458753:RNO458777 RXK458753:RXK458777 SHG458753:SHG458777 SRC458753:SRC458777 TAY458753:TAY458777 TKU458753:TKU458777 TUQ458753:TUQ458777 UEM458753:UEM458777 UOI458753:UOI458777 UYE458753:UYE458777 VIA458753:VIA458777 VRW458753:VRW458777 WBS458753:WBS458777 WLO458753:WLO458777 WVK458753:WVK458777 C524289:C524313 IY524289:IY524313 SU524289:SU524313 ACQ524289:ACQ524313 AMM524289:AMM524313 AWI524289:AWI524313 BGE524289:BGE524313 BQA524289:BQA524313 BZW524289:BZW524313 CJS524289:CJS524313 CTO524289:CTO524313 DDK524289:DDK524313 DNG524289:DNG524313 DXC524289:DXC524313 EGY524289:EGY524313 EQU524289:EQU524313 FAQ524289:FAQ524313 FKM524289:FKM524313 FUI524289:FUI524313 GEE524289:GEE524313 GOA524289:GOA524313 GXW524289:GXW524313 HHS524289:HHS524313 HRO524289:HRO524313 IBK524289:IBK524313 ILG524289:ILG524313 IVC524289:IVC524313 JEY524289:JEY524313 JOU524289:JOU524313 JYQ524289:JYQ524313 KIM524289:KIM524313 KSI524289:KSI524313 LCE524289:LCE524313 LMA524289:LMA524313 LVW524289:LVW524313 MFS524289:MFS524313 MPO524289:MPO524313 MZK524289:MZK524313 NJG524289:NJG524313 NTC524289:NTC524313 OCY524289:OCY524313 OMU524289:OMU524313 OWQ524289:OWQ524313 PGM524289:PGM524313 PQI524289:PQI524313 QAE524289:QAE524313 QKA524289:QKA524313 QTW524289:QTW524313 RDS524289:RDS524313 RNO524289:RNO524313 RXK524289:RXK524313 SHG524289:SHG524313 SRC524289:SRC524313 TAY524289:TAY524313 TKU524289:TKU524313 TUQ524289:TUQ524313 UEM524289:UEM524313 UOI524289:UOI524313 UYE524289:UYE524313 VIA524289:VIA524313 VRW524289:VRW524313 WBS524289:WBS524313 WLO524289:WLO524313 WVK524289:WVK524313 C589825:C589849 IY589825:IY589849 SU589825:SU589849 ACQ589825:ACQ589849 AMM589825:AMM589849 AWI589825:AWI589849 BGE589825:BGE589849 BQA589825:BQA589849 BZW589825:BZW589849 CJS589825:CJS589849 CTO589825:CTO589849 DDK589825:DDK589849 DNG589825:DNG589849 DXC589825:DXC589849 EGY589825:EGY589849 EQU589825:EQU589849 FAQ589825:FAQ589849 FKM589825:FKM589849 FUI589825:FUI589849 GEE589825:GEE589849 GOA589825:GOA589849 GXW589825:GXW589849 HHS589825:HHS589849 HRO589825:HRO589849 IBK589825:IBK589849 ILG589825:ILG589849 IVC589825:IVC589849 JEY589825:JEY589849 JOU589825:JOU589849 JYQ589825:JYQ589849 KIM589825:KIM589849 KSI589825:KSI589849 LCE589825:LCE589849 LMA589825:LMA589849 LVW589825:LVW589849 MFS589825:MFS589849 MPO589825:MPO589849 MZK589825:MZK589849 NJG589825:NJG589849 NTC589825:NTC589849 OCY589825:OCY589849 OMU589825:OMU589849 OWQ589825:OWQ589849 PGM589825:PGM589849 PQI589825:PQI589849 QAE589825:QAE589849 QKA589825:QKA589849 QTW589825:QTW589849 RDS589825:RDS589849 RNO589825:RNO589849 RXK589825:RXK589849 SHG589825:SHG589849 SRC589825:SRC589849 TAY589825:TAY589849 TKU589825:TKU589849 TUQ589825:TUQ589849 UEM589825:UEM589849 UOI589825:UOI589849 UYE589825:UYE589849 VIA589825:VIA589849 VRW589825:VRW589849 WBS589825:WBS589849 WLO589825:WLO589849 WVK589825:WVK589849 C655361:C655385 IY655361:IY655385 SU655361:SU655385 ACQ655361:ACQ655385 AMM655361:AMM655385 AWI655361:AWI655385 BGE655361:BGE655385 BQA655361:BQA655385 BZW655361:BZW655385 CJS655361:CJS655385 CTO655361:CTO655385 DDK655361:DDK655385 DNG655361:DNG655385 DXC655361:DXC655385 EGY655361:EGY655385 EQU655361:EQU655385 FAQ655361:FAQ655385 FKM655361:FKM655385 FUI655361:FUI655385 GEE655361:GEE655385 GOA655361:GOA655385 GXW655361:GXW655385 HHS655361:HHS655385 HRO655361:HRO655385 IBK655361:IBK655385 ILG655361:ILG655385 IVC655361:IVC655385 JEY655361:JEY655385 JOU655361:JOU655385 JYQ655361:JYQ655385 KIM655361:KIM655385 KSI655361:KSI655385 LCE655361:LCE655385 LMA655361:LMA655385 LVW655361:LVW655385 MFS655361:MFS655385 MPO655361:MPO655385 MZK655361:MZK655385 NJG655361:NJG655385 NTC655361:NTC655385 OCY655361:OCY655385 OMU655361:OMU655385 OWQ655361:OWQ655385 PGM655361:PGM655385 PQI655361:PQI655385 QAE655361:QAE655385 QKA655361:QKA655385 QTW655361:QTW655385 RDS655361:RDS655385 RNO655361:RNO655385 RXK655361:RXK655385 SHG655361:SHG655385 SRC655361:SRC655385 TAY655361:TAY655385 TKU655361:TKU655385 TUQ655361:TUQ655385 UEM655361:UEM655385 UOI655361:UOI655385 UYE655361:UYE655385 VIA655361:VIA655385 VRW655361:VRW655385 WBS655361:WBS655385 WLO655361:WLO655385 WVK655361:WVK655385 C720897:C720921 IY720897:IY720921 SU720897:SU720921 ACQ720897:ACQ720921 AMM720897:AMM720921 AWI720897:AWI720921 BGE720897:BGE720921 BQA720897:BQA720921 BZW720897:BZW720921 CJS720897:CJS720921 CTO720897:CTO720921 DDK720897:DDK720921 DNG720897:DNG720921 DXC720897:DXC720921 EGY720897:EGY720921 EQU720897:EQU720921 FAQ720897:FAQ720921 FKM720897:FKM720921 FUI720897:FUI720921 GEE720897:GEE720921 GOA720897:GOA720921 GXW720897:GXW720921 HHS720897:HHS720921 HRO720897:HRO720921 IBK720897:IBK720921 ILG720897:ILG720921 IVC720897:IVC720921 JEY720897:JEY720921 JOU720897:JOU720921 JYQ720897:JYQ720921 KIM720897:KIM720921 KSI720897:KSI720921 LCE720897:LCE720921 LMA720897:LMA720921 LVW720897:LVW720921 MFS720897:MFS720921 MPO720897:MPO720921 MZK720897:MZK720921 NJG720897:NJG720921 NTC720897:NTC720921 OCY720897:OCY720921 OMU720897:OMU720921 OWQ720897:OWQ720921 PGM720897:PGM720921 PQI720897:PQI720921 QAE720897:QAE720921 QKA720897:QKA720921 QTW720897:QTW720921 RDS720897:RDS720921 RNO720897:RNO720921 RXK720897:RXK720921 SHG720897:SHG720921 SRC720897:SRC720921 TAY720897:TAY720921 TKU720897:TKU720921 TUQ720897:TUQ720921 UEM720897:UEM720921 UOI720897:UOI720921 UYE720897:UYE720921 VIA720897:VIA720921 VRW720897:VRW720921 WBS720897:WBS720921 WLO720897:WLO720921 WVK720897:WVK720921 C786433:C786457 IY786433:IY786457 SU786433:SU786457 ACQ786433:ACQ786457 AMM786433:AMM786457 AWI786433:AWI786457 BGE786433:BGE786457 BQA786433:BQA786457 BZW786433:BZW786457 CJS786433:CJS786457 CTO786433:CTO786457 DDK786433:DDK786457 DNG786433:DNG786457 DXC786433:DXC786457 EGY786433:EGY786457 EQU786433:EQU786457 FAQ786433:FAQ786457 FKM786433:FKM786457 FUI786433:FUI786457 GEE786433:GEE786457 GOA786433:GOA786457 GXW786433:GXW786457 HHS786433:HHS786457 HRO786433:HRO786457 IBK786433:IBK786457 ILG786433:ILG786457 IVC786433:IVC786457 JEY786433:JEY786457 JOU786433:JOU786457 JYQ786433:JYQ786457 KIM786433:KIM786457 KSI786433:KSI786457 LCE786433:LCE786457 LMA786433:LMA786457 LVW786433:LVW786457 MFS786433:MFS786457 MPO786433:MPO786457 MZK786433:MZK786457 NJG786433:NJG786457 NTC786433:NTC786457 OCY786433:OCY786457 OMU786433:OMU786457 OWQ786433:OWQ786457 PGM786433:PGM786457 PQI786433:PQI786457 QAE786433:QAE786457 QKA786433:QKA786457 QTW786433:QTW786457 RDS786433:RDS786457 RNO786433:RNO786457 RXK786433:RXK786457 SHG786433:SHG786457 SRC786433:SRC786457 TAY786433:TAY786457 TKU786433:TKU786457 TUQ786433:TUQ786457 UEM786433:UEM786457 UOI786433:UOI786457 UYE786433:UYE786457 VIA786433:VIA786457 VRW786433:VRW786457 WBS786433:WBS786457 WLO786433:WLO786457 WVK786433:WVK786457 C851969:C851993 IY851969:IY851993 SU851969:SU851993 ACQ851969:ACQ851993 AMM851969:AMM851993 AWI851969:AWI851993 BGE851969:BGE851993 BQA851969:BQA851993 BZW851969:BZW851993 CJS851969:CJS851993 CTO851969:CTO851993 DDK851969:DDK851993 DNG851969:DNG851993 DXC851969:DXC851993 EGY851969:EGY851993 EQU851969:EQU851993 FAQ851969:FAQ851993 FKM851969:FKM851993 FUI851969:FUI851993 GEE851969:GEE851993 GOA851969:GOA851993 GXW851969:GXW851993 HHS851969:HHS851993 HRO851969:HRO851993 IBK851969:IBK851993 ILG851969:ILG851993 IVC851969:IVC851993 JEY851969:JEY851993 JOU851969:JOU851993 JYQ851969:JYQ851993 KIM851969:KIM851993 KSI851969:KSI851993 LCE851969:LCE851993 LMA851969:LMA851993 LVW851969:LVW851993 MFS851969:MFS851993 MPO851969:MPO851993 MZK851969:MZK851993 NJG851969:NJG851993 NTC851969:NTC851993 OCY851969:OCY851993 OMU851969:OMU851993 OWQ851969:OWQ851993 PGM851969:PGM851993 PQI851969:PQI851993 QAE851969:QAE851993 QKA851969:QKA851993 QTW851969:QTW851993 RDS851969:RDS851993 RNO851969:RNO851993 RXK851969:RXK851993 SHG851969:SHG851993 SRC851969:SRC851993 TAY851969:TAY851993 TKU851969:TKU851993 TUQ851969:TUQ851993 UEM851969:UEM851993 UOI851969:UOI851993 UYE851969:UYE851993 VIA851969:VIA851993 VRW851969:VRW851993 WBS851969:WBS851993 WLO851969:WLO851993 WVK851969:WVK851993 C917505:C917529 IY917505:IY917529 SU917505:SU917529 ACQ917505:ACQ917529 AMM917505:AMM917529 AWI917505:AWI917529 BGE917505:BGE917529 BQA917505:BQA917529 BZW917505:BZW917529 CJS917505:CJS917529 CTO917505:CTO917529 DDK917505:DDK917529 DNG917505:DNG917529 DXC917505:DXC917529 EGY917505:EGY917529 EQU917505:EQU917529 FAQ917505:FAQ917529 FKM917505:FKM917529 FUI917505:FUI917529 GEE917505:GEE917529 GOA917505:GOA917529 GXW917505:GXW917529 HHS917505:HHS917529 HRO917505:HRO917529 IBK917505:IBK917529 ILG917505:ILG917529 IVC917505:IVC917529 JEY917505:JEY917529 JOU917505:JOU917529 JYQ917505:JYQ917529 KIM917505:KIM917529 KSI917505:KSI917529 LCE917505:LCE917529 LMA917505:LMA917529 LVW917505:LVW917529 MFS917505:MFS917529 MPO917505:MPO917529 MZK917505:MZK917529 NJG917505:NJG917529 NTC917505:NTC917529 OCY917505:OCY917529 OMU917505:OMU917529 OWQ917505:OWQ917529 PGM917505:PGM917529 PQI917505:PQI917529 QAE917505:QAE917529 QKA917505:QKA917529 QTW917505:QTW917529 RDS917505:RDS917529 RNO917505:RNO917529 RXK917505:RXK917529 SHG917505:SHG917529 SRC917505:SRC917529 TAY917505:TAY917529 TKU917505:TKU917529 TUQ917505:TUQ917529 UEM917505:UEM917529 UOI917505:UOI917529 UYE917505:UYE917529 VIA917505:VIA917529 VRW917505:VRW917529 WBS917505:WBS917529 WLO917505:WLO917529 WVK917505:WVK917529 C983041:C983065 IY983041:IY983065 SU983041:SU983065 ACQ983041:ACQ983065 AMM983041:AMM983065 AWI983041:AWI983065 BGE983041:BGE983065 BQA983041:BQA983065 BZW983041:BZW983065 CJS983041:CJS983065 CTO983041:CTO983065 DDK983041:DDK983065 DNG983041:DNG983065 DXC983041:DXC983065 EGY983041:EGY983065 EQU983041:EQU983065 FAQ983041:FAQ983065 FKM983041:FKM983065 FUI983041:FUI983065 GEE983041:GEE983065 GOA983041:GOA983065 GXW983041:GXW983065 HHS983041:HHS983065 HRO983041:HRO983065 IBK983041:IBK983065 ILG983041:ILG983065 IVC983041:IVC983065 JEY983041:JEY983065 JOU983041:JOU983065 JYQ983041:JYQ983065 KIM983041:KIM983065 KSI983041:KSI983065 LCE983041:LCE983065 LMA983041:LMA983065 LVW983041:LVW983065 MFS983041:MFS983065 MPO983041:MPO983065 MZK983041:MZK983065 NJG983041:NJG983065 NTC983041:NTC983065 OCY983041:OCY983065 OMU983041:OMU983065 OWQ983041:OWQ983065 PGM983041:PGM983065 PQI983041:PQI983065 QAE983041:QAE983065 QKA983041:QKA983065 QTW983041:QTW983065 RDS983041:RDS983065 RNO983041:RNO983065 RXK983041:RXK983065 SHG983041:SHG983065 SRC983041:SRC983065 TAY983041:TAY983065 TKU983041:TKU983065 TUQ983041:TUQ983065 UEM983041:UEM983065 UOI983041:UOI983065 UYE983041:UYE983065 VIA983041:VIA983065 VRW983041:VRW983065 WBS983041:WBS983065 WLO983041:WLO983065 IY4:IY27 SU4:SU27 ACQ4:ACQ27 AMM4:AMM27 AWI4:AWI27 BGE4:BGE27 BQA4:BQA27 BZW4:BZW27 CJS4:CJS27 CTO4:CTO27 DDK4:DDK27 DNG4:DNG27 DXC4:DXC27 EGY4:EGY27 EQU4:EQU27 FAQ4:FAQ27 FKM4:FKM27 FUI4:FUI27 GEE4:GEE27 GOA4:GOA27 GXW4:GXW27 HHS4:HHS27 HRO4:HRO27 IBK4:IBK27 ILG4:ILG27 IVC4:IVC27 JEY4:JEY27 JOU4:JOU27 JYQ4:JYQ27 KIM4:KIM27 KSI4:KSI27 LCE4:LCE27 LMA4:LMA27 LVW4:LVW27 MFS4:MFS27 MPO4:MPO27 MZK4:MZK27 NJG4:NJG27 NTC4:NTC27 OCY4:OCY27 OMU4:OMU27 OWQ4:OWQ27 PGM4:PGM27 PQI4:PQI27 QAE4:QAE27 QKA4:QKA27 QTW4:QTW27 RDS4:RDS27 RNO4:RNO27 RXK4:RXK27 SHG4:SHG27 SRC4:SRC27 TAY4:TAY27 TKU4:TKU27 TUQ4:TUQ27 UEM4:UEM27 UOI4:UOI27 UYE4:UYE27 VIA4:VIA27 VRW4:VRW27 WBS4:WBS27 WLO4:WLO27 WVK4:WVK27 C4:C136 WVK29:WVK136 WLO29:WLO136 WBS29:WBS136 VRW29:VRW136 VIA29:VIA136 UYE29:UYE136 UOI29:UOI136 UEM29:UEM136 TUQ29:TUQ136 TKU29:TKU136 TAY29:TAY136 SRC29:SRC136 SHG29:SHG136 RXK29:RXK136 RNO29:RNO136 RDS29:RDS136 QTW29:QTW136 QKA29:QKA136 QAE29:QAE136 PQI29:PQI136 PGM29:PGM136 OWQ29:OWQ136 OMU29:OMU136 OCY29:OCY136 NTC29:NTC136 NJG29:NJG136 MZK29:MZK136 MPO29:MPO136 MFS29:MFS136 LVW29:LVW136 LMA29:LMA136 LCE29:LCE136 KSI29:KSI136 KIM29:KIM136 JYQ29:JYQ136 JOU29:JOU136 JEY29:JEY136 IVC29:IVC136 ILG29:ILG136 IBK29:IBK136 HRO29:HRO136 HHS29:HHS136 GXW29:GXW136 GOA29:GOA136 GEE29:GEE136 FUI29:FUI136 FKM29:FKM136 FAQ29:FAQ136 EQU29:EQU136 EGY29:EGY136 DXC29:DXC136 DNG29:DNG136 DDK29:DDK136 CTO29:CTO136 CJS29:CJS136 BZW29:BZW136 BQA29:BQA136 BGE29:BGE136 AWI29:AWI136 AMM29:AMM136 ACQ29:ACQ136 SU29:SU136 IY29:IY136" xr:uid="{EF2703BF-CA26-412D-B8A9-0262195D956D}">
       <formula1>"Planned,Ongoing,Done,Removed"</formula1>
     </dataValidation>
   </dataValidations>
